--- a/Data_Gathering/odd_even.xlsx
+++ b/Data_Gathering/odd_even.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1879"/>
+  <dimension ref="A1:F1878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46154,26 +46154,26 @@
         <v>1634</v>
       </c>
       <c r="B1636" s="2" t="n">
-        <v>39984</v>
+        <v>39980</v>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>22,24,29,34,35,37</t>
+          <t>02,07,13,31,32,41</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>even-even-odd-even-odd-odd</t>
+          <t>even-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -46182,26 +46182,26 @@
         <v>1635</v>
       </c>
       <c r="B1637" s="2" t="n">
-        <v>39980</v>
+        <v>39977</v>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>02,07,13,31,32,41</t>
+          <t>01,08,13,33,34,36</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-odd</t>
+          <t>odd-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -46210,26 +46210,26 @@
         <v>1636</v>
       </c>
       <c r="B1638" s="2" t="n">
-        <v>39977</v>
+        <v>39973</v>
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>01,08,13,33,34,36</t>
+          <t>12,14,18,27,31,34</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-even</t>
+          <t>even-even-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -46238,26 +46238,26 @@
         <v>1637</v>
       </c>
       <c r="B1639" s="2" t="n">
-        <v>39973</v>
+        <v>39970</v>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>12,14,18,27,31,34</t>
+          <t>10,13,21,27,29,31</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>even-even-even-odd-odd-even</t>
+          <t>even-odd-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -46266,26 +46266,26 @@
         <v>1638</v>
       </c>
       <c r="B1640" s="2" t="n">
-        <v>39970</v>
+        <v>39966</v>
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>10,13,21,27,29,31</t>
+          <t>03,07,13,16,20,34</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-odd-odd</t>
+          <t>odd-odd-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -46294,26 +46294,26 @@
         <v>1639</v>
       </c>
       <c r="B1641" s="2" t="n">
-        <v>39966</v>
+        <v>39963</v>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>03,07,13,16,20,34</t>
+          <t>02,08,10,15,38,42</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-even-even</t>
+          <t>even-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -46322,26 +46322,26 @@
         <v>1640</v>
       </c>
       <c r="B1642" s="2" t="n">
-        <v>39963</v>
+        <v>39959</v>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>02,08,10,15,38,42</t>
+          <t>21,23,24,28,35,37</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-even</t>
+          <t>odd-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -46350,26 +46350,26 @@
         <v>1641</v>
       </c>
       <c r="B1643" s="2" t="n">
-        <v>39959</v>
+        <v>39956</v>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>21,23,24,28,35,37</t>
+          <t>19,21,27,28,31,37</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-odd</t>
+          <t>odd-odd-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -46378,26 +46378,26 @@
         <v>1642</v>
       </c>
       <c r="B1644" s="2" t="n">
-        <v>39956</v>
+        <v>39952</v>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>19,21,27,28,31,37</t>
+          <t>05,20,23,26,31,36</t>
         </is>
       </c>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-odd</t>
+          <t>odd-even-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -46406,21 +46406,21 @@
         <v>1643</v>
       </c>
       <c r="B1645" s="2" t="n">
-        <v>39952</v>
+        <v>39949</v>
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t>05,20,23,26,31,36</t>
+          <t>02,03,12,19,21,26</t>
         </is>
       </c>
       <c r="D1645" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-odd-even</t>
+          <t>even-odd-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr">
@@ -46434,21 +46434,21 @@
         <v>1644</v>
       </c>
       <c r="B1646" s="2" t="n">
-        <v>39949</v>
+        <v>39945</v>
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>02,03,12,19,21,26</t>
+          <t>02,04,11,22,29,39</t>
         </is>
       </c>
       <c r="D1646" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-odd-even</t>
+          <t>even-even-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr">
@@ -46462,26 +46462,26 @@
         <v>1645</v>
       </c>
       <c r="B1647" s="2" t="n">
-        <v>39945</v>
+        <v>39942</v>
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>02,04,11,22,29,39</t>
+          <t>01,07,15,17,24,31</t>
         </is>
       </c>
       <c r="D1647" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>even-even-odd-even-odd-odd</t>
+          <t>odd-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -46490,26 +46490,26 @@
         <v>1646</v>
       </c>
       <c r="B1648" s="2" t="n">
-        <v>39942</v>
+        <v>39938</v>
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>01,07,15,17,24,31</t>
+          <t>05,07,26,32,36,41</t>
         </is>
       </c>
       <c r="D1648" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>odd-odd-odd-odd-even-odd</t>
+          <t>odd-odd-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -46518,21 +46518,21 @@
         <v>1647</v>
       </c>
       <c r="B1649" s="2" t="n">
-        <v>39938</v>
+        <v>39935</v>
       </c>
       <c r="C1649" t="inlineStr">
         <is>
-          <t>05,07,26,32,36,41</t>
+          <t>04,06,09,12,27,41</t>
         </is>
       </c>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1649" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-even-odd</t>
+          <t>even-even-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1649" t="inlineStr">
@@ -46546,21 +46546,21 @@
         <v>1648</v>
       </c>
       <c r="B1650" s="2" t="n">
-        <v>39935</v>
+        <v>39931</v>
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>04,06,09,12,27,41</t>
+          <t>02,20,21,25,28,29</t>
         </is>
       </c>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>even-even-odd-even-odd-odd</t>
+          <t>even-even-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1650" t="inlineStr">
@@ -46574,21 +46574,21 @@
         <v>1649</v>
       </c>
       <c r="B1651" s="2" t="n">
-        <v>39931</v>
+        <v>39928</v>
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t>02,20,21,25,28,29</t>
+          <t>06,09,11,22,28,35</t>
         </is>
       </c>
       <c r="D1651" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1651" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-even-odd</t>
+          <t>even-odd-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1651" t="inlineStr">
@@ -46602,16 +46602,16 @@
         <v>1650</v>
       </c>
       <c r="B1652" s="2" t="n">
-        <v>39928</v>
+        <v>39924</v>
       </c>
       <c r="C1652" t="inlineStr">
         <is>
-          <t>06,09,11,22,28,35</t>
+          <t>02,15,19,26,38,39</t>
         </is>
       </c>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1652" t="inlineStr">
@@ -46630,26 +46630,26 @@
         <v>1651</v>
       </c>
       <c r="B1653" s="2" t="n">
-        <v>39924</v>
+        <v>39921</v>
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>02,15,19,26,38,39</t>
+          <t>04,13,17,19,32,41</t>
         </is>
       </c>
       <c r="D1653" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-even-odd</t>
+          <t>even-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -46658,21 +46658,21 @@
         <v>1652</v>
       </c>
       <c r="B1654" s="2" t="n">
-        <v>39921</v>
+        <v>39917</v>
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t>04,13,17,19,32,41</t>
+          <t>01,02,07,08,23,37</t>
         </is>
       </c>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-odd</t>
+          <t>odd-even-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr">
@@ -46686,11 +46686,11 @@
         <v>1653</v>
       </c>
       <c r="B1655" s="2" t="n">
-        <v>39917</v>
+        <v>39910</v>
       </c>
       <c r="C1655" t="inlineStr">
         <is>
-          <t>01,02,07,08,23,37</t>
+          <t>01,05,06,07,14,35</t>
         </is>
       </c>
       <c r="D1655" t="inlineStr">
@@ -46700,7 +46700,7 @@
       </c>
       <c r="E1655" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-odd-odd</t>
+          <t>odd-odd-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1655" t="inlineStr">
@@ -46714,21 +46714,21 @@
         <v>1654</v>
       </c>
       <c r="B1656" s="2" t="n">
-        <v>39910</v>
+        <v>39907</v>
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>01,05,06,07,14,35</t>
+          <t>07,10,17,27,28,41</t>
         </is>
       </c>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1656" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-even-odd</t>
+          <t>odd-even-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1656" t="inlineStr">
@@ -46742,26 +46742,26 @@
         <v>1655</v>
       </c>
       <c r="B1657" s="2" t="n">
-        <v>39907</v>
+        <v>39903</v>
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>07,10,17,27,28,41</t>
+          <t>07,12,14,16,20,38</t>
         </is>
       </c>
       <c r="D1657" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-odd</t>
+          <t>odd-even-even-even-even-even</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -46770,26 +46770,26 @@
         <v>1656</v>
       </c>
       <c r="B1658" s="2" t="n">
-        <v>39903</v>
+        <v>39900</v>
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>07,12,14,16,20,38</t>
+          <t>06,13,16,25,30,39</t>
         </is>
       </c>
       <c r="D1658" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1658" t="inlineStr">
         <is>
-          <t>odd-even-even-even-even-even</t>
+          <t>even-odd-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1658" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -46798,21 +46798,21 @@
         <v>1657</v>
       </c>
       <c r="B1659" s="2" t="n">
-        <v>39900</v>
+        <v>39896</v>
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>06,13,16,25,30,39</t>
+          <t>01,04,09,14,26,41</t>
         </is>
       </c>
       <c r="D1659" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1659" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-odd</t>
+          <t>odd-even-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1659" t="inlineStr">
@@ -46826,26 +46826,26 @@
         <v>1658</v>
       </c>
       <c r="B1660" s="2" t="n">
-        <v>39896</v>
+        <v>39893</v>
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t>01,04,09,14,26,41</t>
+          <t>08,10,12,19,31,38</t>
         </is>
       </c>
       <c r="D1660" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-even-odd</t>
+          <t>even-even-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -46854,26 +46854,26 @@
         <v>1659</v>
       </c>
       <c r="B1661" s="2" t="n">
-        <v>39893</v>
+        <v>39889</v>
       </c>
       <c r="C1661" t="inlineStr">
         <is>
-          <t>08,10,12,19,31,38</t>
+          <t>01,05,22,28,29,32</t>
         </is>
       </c>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr">
         <is>
-          <t>even-even-even-odd-odd-even</t>
+          <t>odd-odd-even-even-odd-even</t>
         </is>
       </c>
       <c r="F1661" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -46882,26 +46882,26 @@
         <v>1660</v>
       </c>
       <c r="B1662" s="2" t="n">
-        <v>39889</v>
+        <v>39886</v>
       </c>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>01,05,22,28,29,32</t>
+          <t>13,14,17,35,37,38</t>
         </is>
       </c>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-even</t>
+          <t>odd-even-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1662" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -46910,26 +46910,26 @@
         <v>1661</v>
       </c>
       <c r="B1663" s="2" t="n">
-        <v>39886</v>
+        <v>39882</v>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>13,14,17,35,37,38</t>
+          <t>06,08,24,25,30,38</t>
         </is>
       </c>
       <c r="D1663" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-odd-even</t>
+          <t>even-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -46938,26 +46938,26 @@
         <v>1662</v>
       </c>
       <c r="B1664" s="2" t="n">
-        <v>39882</v>
+        <v>39879</v>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>06,08,24,25,30,38</t>
+          <t>06,10,19,29,36,39</t>
         </is>
       </c>
       <c r="D1664" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-even</t>
+          <t>even-even-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -46966,26 +46966,26 @@
         <v>1663</v>
       </c>
       <c r="B1665" s="2" t="n">
-        <v>39879</v>
+        <v>39875</v>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>06,10,19,29,36,39</t>
+          <t>05,11,16,24,32,34</t>
         </is>
       </c>
       <c r="D1665" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-even-odd</t>
+          <t>odd-odd-even-even-even-even</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -46994,21 +46994,21 @@
         <v>1664</v>
       </c>
       <c r="B1666" s="2" t="n">
-        <v>39875</v>
+        <v>39872</v>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>05,11,16,24,32,34</t>
+          <t>16,27,31,32,36,42</t>
         </is>
       </c>
       <c r="D1666" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-even-even</t>
+          <t>even-odd-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr">
@@ -47022,26 +47022,26 @@
         <v>1665</v>
       </c>
       <c r="B1667" s="2" t="n">
-        <v>39872</v>
+        <v>39868</v>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>16,27,31,32,36,42</t>
+          <t>11,12,13,17,35,38</t>
         </is>
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-even-even</t>
+          <t>odd-even-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -47050,26 +47050,26 @@
         <v>1666</v>
       </c>
       <c r="B1668" s="2" t="n">
-        <v>39868</v>
+        <v>39865</v>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>11,12,13,17,35,38</t>
+          <t>20,23,28,39,40,42</t>
         </is>
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-odd-even</t>
+          <t>even-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -47078,21 +47078,21 @@
         <v>1667</v>
       </c>
       <c r="B1669" s="2" t="n">
-        <v>39865</v>
+        <v>39861</v>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>20,23,28,39,40,42</t>
+          <t>03,12,14,15,16,18</t>
         </is>
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-even</t>
+          <t>odd-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr">
@@ -47106,26 +47106,26 @@
         <v>1668</v>
       </c>
       <c r="B1670" s="2" t="n">
-        <v>39861</v>
+        <v>39858</v>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>03,12,14,15,16,18</t>
+          <t>07,09,17,18,29,40</t>
         </is>
       </c>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-even-even</t>
+          <t>odd-odd-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -47134,26 +47134,26 @@
         <v>1669</v>
       </c>
       <c r="B1671" s="2" t="n">
-        <v>39858</v>
+        <v>39854</v>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>07,09,17,18,29,40</t>
+          <t>02,03,14,15,28,32</t>
         </is>
       </c>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1671" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-even</t>
+          <t>even-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1671" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -47162,26 +47162,26 @@
         <v>1670</v>
       </c>
       <c r="B1672" s="2" t="n">
-        <v>39854</v>
+        <v>39851</v>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>02,03,14,15,28,32</t>
+          <t>08,12,14,16,24,29</t>
         </is>
       </c>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1672" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-even</t>
+          <t>even-even-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1672" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -47190,26 +47190,26 @@
         <v>1671</v>
       </c>
       <c r="B1673" s="2" t="n">
-        <v>39851</v>
+        <v>39847</v>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>08,12,14,16,24,29</t>
+          <t>06,10,11,15,19,21</t>
         </is>
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1673" t="inlineStr">
         <is>
-          <t>even-even-even-even-even-odd</t>
+          <t>even-even-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1673" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -47218,21 +47218,21 @@
         <v>1672</v>
       </c>
       <c r="B1674" s="2" t="n">
-        <v>39847</v>
+        <v>39844</v>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>06,10,11,15,19,21</t>
+          <t>07,17,30,38,39,41</t>
         </is>
       </c>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-odd-odd</t>
+          <t>odd-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1674" t="inlineStr">
@@ -47246,26 +47246,26 @@
         <v>1673</v>
       </c>
       <c r="B1675" s="2" t="n">
-        <v>39844</v>
+        <v>39840</v>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>07,17,30,38,39,41</t>
+          <t>05,08,29,32,38,41</t>
         </is>
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-odd</t>
+          <t>odd-even-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1675" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -47274,21 +47274,21 @@
         <v>1674</v>
       </c>
       <c r="B1676" s="2" t="n">
-        <v>39840</v>
+        <v>39837</v>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>05,08,29,32,38,41</t>
+          <t>02,03,15,20,21,22</t>
         </is>
       </c>
       <c r="D1676" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-even-odd</t>
+          <t>even-odd-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1676" t="inlineStr">
@@ -47302,26 +47302,26 @@
         <v>1675</v>
       </c>
       <c r="B1677" s="2" t="n">
-        <v>39837</v>
+        <v>39833</v>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>02,03,15,20,21,22</t>
+          <t>02,05,10,27,31,37</t>
         </is>
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1677" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-odd-even</t>
+          <t>even-odd-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1677" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -47330,26 +47330,26 @@
         <v>1676</v>
       </c>
       <c r="B1678" s="2" t="n">
-        <v>39833</v>
+        <v>39830</v>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>02,05,10,27,31,37</t>
+          <t>02,04,06,14,15,31</t>
         </is>
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1678" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-odd-odd</t>
+          <t>even-even-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1678" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -47358,26 +47358,26 @@
         <v>1677</v>
       </c>
       <c r="B1679" s="2" t="n">
-        <v>39830</v>
+        <v>39826</v>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>02,04,06,14,15,31</t>
+          <t>01,08,32,34,38,40</t>
         </is>
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1679" t="inlineStr">
         <is>
-          <t>even-even-even-even-odd-odd</t>
+          <t>odd-even-even-even-even-even</t>
         </is>
       </c>
       <c r="F1679" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -47386,26 +47386,26 @@
         <v>1678</v>
       </c>
       <c r="B1680" s="2" t="n">
-        <v>39826</v>
+        <v>39823</v>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>01,08,32,34,38,40</t>
+          <t>01,04,12,24,31,41</t>
         </is>
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1680" t="inlineStr">
         <is>
-          <t>odd-even-even-even-even-even</t>
+          <t>odd-even-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1680" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -47414,26 +47414,26 @@
         <v>1679</v>
       </c>
       <c r="B1681" s="2" t="n">
-        <v>39823</v>
+        <v>39819</v>
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>01,04,12,24,31,41</t>
+          <t>18,20,22,29,39,42</t>
         </is>
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1681" t="inlineStr">
         <is>
-          <t>odd-even-even-even-odd-odd</t>
+          <t>even-even-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1681" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -47442,26 +47442,26 @@
         <v>1680</v>
       </c>
       <c r="B1682" s="2" t="n">
-        <v>39819</v>
+        <v>39816</v>
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>18,20,22,29,39,42</t>
+          <t>06,07,22,33,39,41</t>
         </is>
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1682" t="inlineStr">
         <is>
-          <t>even-even-even-odd-odd-even</t>
+          <t>even-odd-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1682" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -47470,21 +47470,21 @@
         <v>1681</v>
       </c>
       <c r="B1683" s="2" t="n">
-        <v>39816</v>
+        <v>39812</v>
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>06,07,22,33,39,41</t>
+          <t>08,12,17,23,25,35</t>
         </is>
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1683" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-odd-odd</t>
+          <t>even-even-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1683" t="inlineStr">
@@ -47498,21 +47498,21 @@
         <v>1682</v>
       </c>
       <c r="B1684" s="2" t="n">
-        <v>39812</v>
+        <v>39809</v>
       </c>
       <c r="C1684" t="inlineStr">
         <is>
-          <t>08,12,17,23,25,35</t>
+          <t>05,09,15,22,35,40</t>
         </is>
       </c>
       <c r="D1684" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-odd-odd</t>
+          <t>odd-odd-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1684" t="inlineStr">
@@ -47526,26 +47526,26 @@
         <v>1683</v>
       </c>
       <c r="B1685" s="2" t="n">
-        <v>39809</v>
+        <v>39805</v>
       </c>
       <c r="C1685" t="inlineStr">
         <is>
-          <t>05,09,15,22,35,40</t>
+          <t>16,21,33,37,38,40</t>
         </is>
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1685" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-even</t>
+          <t>even-odd-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1685" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -47554,26 +47554,26 @@
         <v>1684</v>
       </c>
       <c r="B1686" s="2" t="n">
-        <v>39805</v>
+        <v>39802</v>
       </c>
       <c r="C1686" t="inlineStr">
         <is>
-          <t>16,21,33,37,38,40</t>
+          <t>01,18,20,26,33,36</t>
         </is>
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1686" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-even</t>
+          <t>odd-even-even-even-odd-even</t>
         </is>
       </c>
       <c r="F1686" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -47582,26 +47582,26 @@
         <v>1685</v>
       </c>
       <c r="B1687" s="2" t="n">
-        <v>39802</v>
+        <v>39798</v>
       </c>
       <c r="C1687" t="inlineStr">
         <is>
-          <t>01,18,20,26,33,36</t>
+          <t>08,11,25,35,38,42</t>
         </is>
       </c>
       <c r="D1687" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1687" t="inlineStr">
         <is>
-          <t>odd-even-even-even-odd-even</t>
+          <t>even-odd-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1687" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -47610,26 +47610,26 @@
         <v>1686</v>
       </c>
       <c r="B1688" s="2" t="n">
-        <v>39798</v>
+        <v>39795</v>
       </c>
       <c r="C1688" t="inlineStr">
         <is>
-          <t>08,11,25,35,38,42</t>
+          <t>09,11,17,20,31,41</t>
         </is>
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1688" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-even</t>
+          <t>odd-odd-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1688" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -47638,26 +47638,26 @@
         <v>1687</v>
       </c>
       <c r="B1689" s="2" t="n">
-        <v>39795</v>
+        <v>39791</v>
       </c>
       <c r="C1689" t="inlineStr">
         <is>
-          <t>09,11,17,20,31,41</t>
+          <t>20,24,26,31,37,41</t>
         </is>
       </c>
       <c r="D1689" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1689" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-odd</t>
+          <t>even-even-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1689" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -47666,26 +47666,26 @@
         <v>1688</v>
       </c>
       <c r="B1690" s="2" t="n">
-        <v>39791</v>
+        <v>39788</v>
       </c>
       <c r="C1690" t="inlineStr">
         <is>
-          <t>20,24,26,31,37,41</t>
+          <t>04,12,18,19,40,41</t>
         </is>
       </c>
       <c r="D1690" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1690" t="inlineStr">
         <is>
-          <t>even-even-even-odd-odd-odd</t>
+          <t>even-even-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1690" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -47694,26 +47694,26 @@
         <v>1689</v>
       </c>
       <c r="B1691" s="2" t="n">
-        <v>39788</v>
+        <v>39784</v>
       </c>
       <c r="C1691" t="inlineStr">
         <is>
-          <t>04,12,18,19,40,41</t>
+          <t>02,05,13,17,31,38</t>
         </is>
       </c>
       <c r="D1691" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1691" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-odd</t>
+          <t>even-odd-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1691" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -47722,26 +47722,26 @@
         <v>1690</v>
       </c>
       <c r="B1692" s="2" t="n">
-        <v>39784</v>
+        <v>39781</v>
       </c>
       <c r="C1692" t="inlineStr">
         <is>
-          <t>02,05,13,17,31,38</t>
+          <t>06,12,18,25,26,34</t>
         </is>
       </c>
       <c r="D1692" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1692" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-odd-even</t>
+          <t>even-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1692" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -47750,26 +47750,26 @@
         <v>1691</v>
       </c>
       <c r="B1693" s="2" t="n">
-        <v>39781</v>
+        <v>39777</v>
       </c>
       <c r="C1693" t="inlineStr">
         <is>
-          <t>06,12,18,25,26,34</t>
+          <t>08,09,14,23,29,30</t>
         </is>
       </c>
       <c r="D1693" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1693" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-even</t>
+          <t>even-odd-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1693" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -47778,26 +47778,26 @@
         <v>1692</v>
       </c>
       <c r="B1694" s="2" t="n">
-        <v>39777</v>
+        <v>39774</v>
       </c>
       <c r="C1694" t="inlineStr">
         <is>
-          <t>08,09,14,23,29,30</t>
+          <t>04,10,11,28,31,36</t>
         </is>
       </c>
       <c r="D1694" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1694" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-odd-even</t>
+          <t>even-even-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1694" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -47806,26 +47806,26 @@
         <v>1693</v>
       </c>
       <c r="B1695" s="2" t="n">
-        <v>39774</v>
+        <v>39770</v>
       </c>
       <c r="C1695" t="inlineStr">
         <is>
-          <t>04,10,11,28,31,36</t>
+          <t>03,07,29,32,33,39</t>
         </is>
       </c>
       <c r="D1695" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1695" t="inlineStr">
         <is>
-          <t>even-even-odd-even-odd-even</t>
+          <t>odd-odd-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1695" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -47834,26 +47834,26 @@
         <v>1694</v>
       </c>
       <c r="B1696" s="2" t="n">
-        <v>39770</v>
+        <v>39767</v>
       </c>
       <c r="C1696" t="inlineStr">
         <is>
-          <t>03,07,29,32,33,39</t>
+          <t>16,22,23,25,33,41</t>
         </is>
       </c>
       <c r="D1696" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1696" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-odd</t>
+          <t>even-even-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1696" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -47862,26 +47862,26 @@
         <v>1695</v>
       </c>
       <c r="B1697" s="2" t="n">
-        <v>39767</v>
+        <v>39763</v>
       </c>
       <c r="C1697" t="inlineStr">
         <is>
-          <t>16,22,23,25,33,41</t>
+          <t>20,23,36,38,39,40</t>
         </is>
       </c>
       <c r="D1697" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1697" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-odd-odd</t>
+          <t>even-odd-even-even-odd-even</t>
         </is>
       </c>
       <c r="F1697" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -47890,21 +47890,21 @@
         <v>1696</v>
       </c>
       <c r="B1698" s="2" t="n">
-        <v>39763</v>
+        <v>39760</v>
       </c>
       <c r="C1698" t="inlineStr">
         <is>
-          <t>20,23,36,38,39,40</t>
+          <t>07,14,20,21,26,42</t>
         </is>
       </c>
       <c r="D1698" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1698" t="inlineStr">
         <is>
-          <t>even-odd-even-even-odd-even</t>
+          <t>odd-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1698" t="inlineStr">
@@ -47918,26 +47918,26 @@
         <v>1697</v>
       </c>
       <c r="B1699" s="2" t="n">
-        <v>39760</v>
+        <v>39756</v>
       </c>
       <c r="C1699" t="inlineStr">
         <is>
-          <t>07,14,20,21,26,42</t>
+          <t>01,02,05,15,31,33</t>
         </is>
       </c>
       <c r="D1699" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1699" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-even-even</t>
+          <t>odd-even-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1699" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -47946,26 +47946,26 @@
         <v>1698</v>
       </c>
       <c r="B1700" s="2" t="n">
-        <v>39756</v>
+        <v>39753</v>
       </c>
       <c r="C1700" t="inlineStr">
         <is>
-          <t>01,02,05,15,31,33</t>
+          <t>06,13,15,25,36,41</t>
         </is>
       </c>
       <c r="D1700" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1700" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-odd-odd</t>
+          <t>even-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1700" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -47974,26 +47974,26 @@
         <v>1699</v>
       </c>
       <c r="B1701" s="2" t="n">
-        <v>39753</v>
+        <v>39749</v>
       </c>
       <c r="C1701" t="inlineStr">
         <is>
-          <t>06,13,15,25,36,41</t>
+          <t>05,10,16,28,38,41</t>
         </is>
       </c>
       <c r="D1701" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1701" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-odd</t>
+          <t>odd-even-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1701" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -48002,21 +48002,21 @@
         <v>1700</v>
       </c>
       <c r="B1702" s="2" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="C1702" t="inlineStr">
         <is>
-          <t>05,10,16,28,38,41</t>
+          <t>06,12,17,23,26,30</t>
         </is>
       </c>
       <c r="D1702" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1702" t="inlineStr">
         <is>
-          <t>odd-even-even-even-even-odd</t>
+          <t>even-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1702" t="inlineStr">
@@ -48030,26 +48030,26 @@
         <v>1701</v>
       </c>
       <c r="B1703" s="2" t="n">
-        <v>39746</v>
+        <v>39742</v>
       </c>
       <c r="C1703" t="inlineStr">
         <is>
-          <t>06,12,17,23,26,30</t>
+          <t>02,05,16,20,21,23</t>
         </is>
       </c>
       <c r="D1703" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1703" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-even-even</t>
+          <t>even-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1703" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -48058,26 +48058,26 @@
         <v>1702</v>
       </c>
       <c r="B1704" s="2" t="n">
-        <v>39742</v>
+        <v>39739</v>
       </c>
       <c r="C1704" t="inlineStr">
         <is>
-          <t>02,05,16,20,21,23</t>
+          <t>07,11,16,30,31,41</t>
         </is>
       </c>
       <c r="D1704" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1704" t="inlineStr">
         <is>
-          <t>even-odd-even-even-odd-odd</t>
+          <t>odd-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1704" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -48086,21 +48086,21 @@
         <v>1703</v>
       </c>
       <c r="B1705" s="2" t="n">
-        <v>39739</v>
+        <v>39735</v>
       </c>
       <c r="C1705" t="inlineStr">
         <is>
-          <t>07,11,16,30,31,41</t>
+          <t>01,05,19,32,35,40</t>
         </is>
       </c>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1705" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-odd</t>
+          <t>odd-odd-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1705" t="inlineStr">
@@ -48114,26 +48114,26 @@
         <v>1704</v>
       </c>
       <c r="B1706" s="2" t="n">
-        <v>39735</v>
+        <v>39732</v>
       </c>
       <c r="C1706" t="inlineStr">
         <is>
-          <t>01,05,19,32,35,40</t>
+          <t>04,07,31,32,36,40</t>
         </is>
       </c>
       <c r="D1706" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1706" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-even</t>
+          <t>even-odd-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1706" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -48142,26 +48142,26 @@
         <v>1705</v>
       </c>
       <c r="B1707" s="2" t="n">
-        <v>39732</v>
+        <v>39728</v>
       </c>
       <c r="C1707" t="inlineStr">
         <is>
-          <t>04,07,31,32,36,40</t>
+          <t>01,03,08,15,27,40</t>
         </is>
       </c>
       <c r="D1707" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1707" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-even-even</t>
+          <t>odd-odd-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1707" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -48170,26 +48170,26 @@
         <v>1706</v>
       </c>
       <c r="B1708" s="2" t="n">
-        <v>39728</v>
+        <v>39725</v>
       </c>
       <c r="C1708" t="inlineStr">
         <is>
-          <t>01,03,08,15,27,40</t>
+          <t>01,02,34,38,40,41</t>
         </is>
       </c>
       <c r="D1708" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1708" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-even</t>
+          <t>odd-even-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1708" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -48198,26 +48198,26 @@
         <v>1707</v>
       </c>
       <c r="B1709" s="2" t="n">
-        <v>39725</v>
+        <v>39721</v>
       </c>
       <c r="C1709" t="inlineStr">
         <is>
-          <t>01,02,34,38,40,41</t>
+          <t>13,16,22,29,32,39</t>
         </is>
       </c>
       <c r="D1709" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1709" t="inlineStr">
         <is>
-          <t>odd-even-even-even-even-odd</t>
+          <t>odd-even-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1709" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -48226,26 +48226,26 @@
         <v>1708</v>
       </c>
       <c r="B1710" s="2" t="n">
-        <v>39721</v>
+        <v>39718</v>
       </c>
       <c r="C1710" t="inlineStr">
         <is>
-          <t>13,16,22,29,32,39</t>
+          <t>02,03,08,19,28,40</t>
         </is>
       </c>
       <c r="D1710" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1710" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-even-odd</t>
+          <t>even-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1710" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -48254,26 +48254,26 @@
         <v>1709</v>
       </c>
       <c r="B1711" s="2" t="n">
-        <v>39718</v>
+        <v>39714</v>
       </c>
       <c r="C1711" t="inlineStr">
         <is>
-          <t>02,03,08,19,28,40</t>
+          <t>17,19,20,30,39,41</t>
         </is>
       </c>
       <c r="D1711" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1711" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-even</t>
+          <t>odd-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1711" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -48282,21 +48282,21 @@
         <v>1710</v>
       </c>
       <c r="B1712" s="2" t="n">
-        <v>39714</v>
+        <v>39711</v>
       </c>
       <c r="C1712" t="inlineStr">
         <is>
-          <t>17,19,20,30,39,41</t>
+          <t>01,03,04,09,13,34</t>
         </is>
       </c>
       <c r="D1712" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1712" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-odd</t>
+          <t>odd-odd-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1712" t="inlineStr">
@@ -48310,26 +48310,26 @@
         <v>1711</v>
       </c>
       <c r="B1713" s="2" t="n">
-        <v>39711</v>
+        <v>39707</v>
       </c>
       <c r="C1713" t="inlineStr">
         <is>
-          <t>01,03,04,09,13,34</t>
+          <t>02,12,13,26,36,37</t>
         </is>
       </c>
       <c r="D1713" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1713" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-even</t>
+          <t>even-even-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -48338,26 +48338,26 @@
         <v>1712</v>
       </c>
       <c r="B1714" s="2" t="n">
-        <v>39707</v>
+        <v>39704</v>
       </c>
       <c r="C1714" t="inlineStr">
         <is>
-          <t>02,12,13,26,36,37</t>
+          <t>17,20,26,30,33,37</t>
         </is>
       </c>
       <c r="D1714" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1714" t="inlineStr">
         <is>
-          <t>even-even-odd-even-even-odd</t>
+          <t>odd-even-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1714" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -48366,26 +48366,26 @@
         <v>1713</v>
       </c>
       <c r="B1715" s="2" t="n">
-        <v>39704</v>
+        <v>39700</v>
       </c>
       <c r="C1715" t="inlineStr">
         <is>
-          <t>17,20,26,30,33,37</t>
+          <t>04,08,09,13,21,27</t>
         </is>
       </c>
       <c r="D1715" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1715" t="inlineStr">
         <is>
-          <t>odd-even-even-even-odd-odd</t>
+          <t>even-even-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1715" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -48394,26 +48394,26 @@
         <v>1714</v>
       </c>
       <c r="B1716" s="2" t="n">
-        <v>39700</v>
+        <v>39697</v>
       </c>
       <c r="C1716" t="inlineStr">
         <is>
-          <t>04,08,09,13,21,27</t>
+          <t>02,14,18,26,27,29</t>
         </is>
       </c>
       <c r="D1716" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1716" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-odd-odd</t>
+          <t>even-even-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1716" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -48422,26 +48422,26 @@
         <v>1715</v>
       </c>
       <c r="B1717" s="2" t="n">
-        <v>39697</v>
+        <v>39693</v>
       </c>
       <c r="C1717" t="inlineStr">
         <is>
-          <t>02,14,18,26,27,29</t>
+          <t>01,22,23,34,37,38</t>
         </is>
       </c>
       <c r="D1717" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1717" t="inlineStr">
         <is>
-          <t>even-even-even-even-odd-odd</t>
+          <t>odd-even-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1717" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -48450,26 +48450,26 @@
         <v>1716</v>
       </c>
       <c r="B1718" s="2" t="n">
-        <v>39693</v>
+        <v>39690</v>
       </c>
       <c r="C1718" t="inlineStr">
         <is>
-          <t>01,22,23,34,37,38</t>
+          <t>03,06,19,25,28,35</t>
         </is>
       </c>
       <c r="D1718" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1718" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-odd-even</t>
+          <t>odd-even-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1718" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -48478,21 +48478,21 @@
         <v>1717</v>
       </c>
       <c r="B1719" s="2" t="n">
-        <v>39690</v>
+        <v>39686</v>
       </c>
       <c r="C1719" t="inlineStr">
         <is>
-          <t>03,06,19,25,28,35</t>
+          <t>05,11,13,15,24,42</t>
         </is>
       </c>
       <c r="D1719" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1719" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-odd</t>
+          <t>odd-odd-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1719" t="inlineStr">
@@ -48506,26 +48506,26 @@
         <v>1718</v>
       </c>
       <c r="B1720" s="2" t="n">
-        <v>39686</v>
+        <v>39683</v>
       </c>
       <c r="C1720" t="inlineStr">
         <is>
-          <t>05,11,13,15,24,42</t>
+          <t>05,12,15,21,29,39</t>
         </is>
       </c>
       <c r="D1720" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1720" t="inlineStr">
         <is>
-          <t>odd-odd-odd-odd-even-even</t>
+          <t>odd-even-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1720" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -48534,21 +48534,21 @@
         <v>1719</v>
       </c>
       <c r="B1721" s="2" t="n">
-        <v>39683</v>
+        <v>39679</v>
       </c>
       <c r="C1721" t="inlineStr">
         <is>
-          <t>05,12,15,21,29,39</t>
+          <t>01,03,26,33,39,41</t>
         </is>
       </c>
       <c r="D1721" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1721" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-odd-odd</t>
+          <t>odd-odd-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1721" t="inlineStr">
@@ -48562,26 +48562,26 @@
         <v>1720</v>
       </c>
       <c r="B1722" s="2" t="n">
-        <v>39679</v>
+        <v>39676</v>
       </c>
       <c r="C1722" t="inlineStr">
         <is>
-          <t>01,03,26,33,39,41</t>
+          <t>05,07,08,21,22,29</t>
         </is>
       </c>
       <c r="D1722" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1722" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-odd</t>
+          <t>odd-odd-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1722" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -48590,26 +48590,26 @@
         <v>1721</v>
       </c>
       <c r="B1723" s="2" t="n">
-        <v>39676</v>
+        <v>39672</v>
       </c>
       <c r="C1723" t="inlineStr">
         <is>
-          <t>05,07,08,21,22,29</t>
+          <t>02,06,07,09,20,24</t>
         </is>
       </c>
       <c r="D1723" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1723" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-even-odd</t>
+          <t>even-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1723" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -48618,26 +48618,26 @@
         <v>1722</v>
       </c>
       <c r="B1724" s="2" t="n">
-        <v>39672</v>
+        <v>39669</v>
       </c>
       <c r="C1724" t="inlineStr">
         <is>
-          <t>02,06,07,09,20,24</t>
+          <t>01,19,20,25,30,34</t>
         </is>
       </c>
       <c r="D1724" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1724" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-even-even</t>
+          <t>odd-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1724" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -48646,26 +48646,26 @@
         <v>1723</v>
       </c>
       <c r="B1725" s="2" t="n">
-        <v>39669</v>
+        <v>39665</v>
       </c>
       <c r="C1725" t="inlineStr">
         <is>
-          <t>01,19,20,25,30,34</t>
+          <t>02,07,14,19,24,34</t>
         </is>
       </c>
       <c r="D1725" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1725" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-even-even</t>
+          <t>even-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1725" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -48674,26 +48674,26 @@
         <v>1724</v>
       </c>
       <c r="B1726" s="2" t="n">
-        <v>39665</v>
+        <v>39662</v>
       </c>
       <c r="C1726" t="inlineStr">
         <is>
-          <t>02,07,14,19,24,34</t>
+          <t>13,15,20,28,33,42</t>
         </is>
       </c>
       <c r="D1726" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1726" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-even</t>
+          <t>odd-odd-even-even-odd-even</t>
         </is>
       </c>
       <c r="F1726" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -48702,21 +48702,21 @@
         <v>1725</v>
       </c>
       <c r="B1727" s="2" t="n">
-        <v>39662</v>
+        <v>39658</v>
       </c>
       <c r="C1727" t="inlineStr">
         <is>
-          <t>13,15,20,28,33,42</t>
+          <t>05,06,12,13,24,25</t>
         </is>
       </c>
       <c r="D1727" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1727" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-even</t>
+          <t>odd-even-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1727" t="inlineStr">
@@ -48730,21 +48730,21 @@
         <v>1726</v>
       </c>
       <c r="B1728" s="2" t="n">
-        <v>39658</v>
+        <v>39655</v>
       </c>
       <c r="C1728" t="inlineStr">
         <is>
-          <t>05,06,12,13,24,25</t>
+          <t>05,06,19,22,39,42</t>
         </is>
       </c>
       <c r="D1728" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1728" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-even-odd</t>
+          <t>odd-even-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1728" t="inlineStr">
@@ -48758,26 +48758,26 @@
         <v>1727</v>
       </c>
       <c r="B1729" s="2" t="n">
-        <v>39655</v>
+        <v>39651</v>
       </c>
       <c r="C1729" t="inlineStr">
         <is>
-          <t>05,06,19,22,39,42</t>
+          <t>13,16,17,22,31,33</t>
         </is>
       </c>
       <c r="D1729" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1729" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-odd-even</t>
+          <t>odd-even-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1729" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -48786,26 +48786,26 @@
         <v>1728</v>
       </c>
       <c r="B1730" s="2" t="n">
-        <v>39651</v>
+        <v>39648</v>
       </c>
       <c r="C1730" t="inlineStr">
         <is>
-          <t>13,16,17,22,31,33</t>
+          <t>03,14,19,28,38,39</t>
         </is>
       </c>
       <c r="D1730" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1730" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-odd-odd</t>
+          <t>odd-even-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1730" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -48814,26 +48814,26 @@
         <v>1729</v>
       </c>
       <c r="B1731" s="2" t="n">
-        <v>39648</v>
+        <v>39644</v>
       </c>
       <c r="C1731" t="inlineStr">
         <is>
-          <t>03,14,19,28,38,39</t>
+          <t>07,11,15,24,25,32</t>
         </is>
       </c>
       <c r="D1731" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1731" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-even-odd</t>
+          <t>odd-odd-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1731" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -48842,26 +48842,26 @@
         <v>1730</v>
       </c>
       <c r="B1732" s="2" t="n">
-        <v>39644</v>
+        <v>39641</v>
       </c>
       <c r="C1732" t="inlineStr">
         <is>
-          <t>07,11,15,24,25,32</t>
+          <t>03,07,10,20,23,38</t>
         </is>
       </c>
       <c r="D1732" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1732" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-even</t>
+          <t>odd-odd-even-even-odd-even</t>
         </is>
       </c>
       <c r="F1732" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -48870,26 +48870,26 @@
         <v>1731</v>
       </c>
       <c r="B1733" s="2" t="n">
-        <v>39641</v>
+        <v>39637</v>
       </c>
       <c r="C1733" t="inlineStr">
         <is>
-          <t>03,07,10,20,23,38</t>
+          <t>01,03,05,27,33,42</t>
         </is>
       </c>
       <c r="D1733" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1733" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-even</t>
+          <t>odd-odd-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1733" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -48898,26 +48898,26 @@
         <v>1732</v>
       </c>
       <c r="B1734" s="2" t="n">
-        <v>39637</v>
+        <v>39634</v>
       </c>
       <c r="C1734" t="inlineStr">
         <is>
-          <t>01,03,05,27,33,42</t>
+          <t>07,14,18,21,25,28</t>
         </is>
       </c>
       <c r="D1734" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1734" t="inlineStr">
         <is>
-          <t>odd-odd-odd-odd-odd-even</t>
+          <t>odd-even-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1734" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -48926,26 +48926,26 @@
         <v>1733</v>
       </c>
       <c r="B1735" s="2" t="n">
-        <v>39634</v>
+        <v>39630</v>
       </c>
       <c r="C1735" t="inlineStr">
         <is>
-          <t>07,14,18,21,25,28</t>
+          <t>04,10,34,35,37,38</t>
         </is>
       </c>
       <c r="D1735" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1735" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-odd-even</t>
+          <t>even-even-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1735" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -48954,26 +48954,26 @@
         <v>1734</v>
       </c>
       <c r="B1736" s="2" t="n">
-        <v>39630</v>
+        <v>39627</v>
       </c>
       <c r="C1736" t="inlineStr">
         <is>
-          <t>04,10,34,35,37,38</t>
+          <t>04,07,11,21,29,34</t>
         </is>
       </c>
       <c r="D1736" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1736" t="inlineStr">
         <is>
-          <t>even-even-even-odd-odd-even</t>
+          <t>even-odd-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1736" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -48982,26 +48982,26 @@
         <v>1735</v>
       </c>
       <c r="B1737" s="2" t="n">
-        <v>39627</v>
+        <v>39623</v>
       </c>
       <c r="C1737" t="inlineStr">
         <is>
-          <t>04,07,11,21,29,34</t>
+          <t>04,08,11,14,21,23</t>
         </is>
       </c>
       <c r="D1737" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1737" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-odd-even</t>
+          <t>even-even-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1737" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -49010,21 +49010,21 @@
         <v>1736</v>
       </c>
       <c r="B1738" s="2" t="n">
-        <v>39623</v>
+        <v>39620</v>
       </c>
       <c r="C1738" t="inlineStr">
         <is>
-          <t>04,08,11,14,21,23</t>
+          <t>08,13,15,19,26,36</t>
         </is>
       </c>
       <c r="D1738" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1738" t="inlineStr">
         <is>
-          <t>even-even-odd-even-odd-odd</t>
+          <t>even-odd-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1738" t="inlineStr">
@@ -49038,26 +49038,26 @@
         <v>1737</v>
       </c>
       <c r="B1739" s="2" t="n">
-        <v>39620</v>
+        <v>39616</v>
       </c>
       <c r="C1739" t="inlineStr">
         <is>
-          <t>08,13,15,19,26,36</t>
+          <t>08,15,18,21,37,41</t>
         </is>
       </c>
       <c r="D1739" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1739" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-even</t>
+          <t>even-odd-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1739" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -49066,26 +49066,26 @@
         <v>1738</v>
       </c>
       <c r="B1740" s="2" t="n">
-        <v>39616</v>
+        <v>39613</v>
       </c>
       <c r="C1740" t="inlineStr">
         <is>
-          <t>08,15,18,21,37,41</t>
+          <t>03,07,26,31,33,41</t>
         </is>
       </c>
       <c r="D1740" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1740" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-odd-odd</t>
+          <t>odd-odd-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -49094,26 +49094,26 @@
         <v>1739</v>
       </c>
       <c r="B1741" s="2" t="n">
-        <v>39613</v>
+        <v>39609</v>
       </c>
       <c r="C1741" t="inlineStr">
         <is>
-          <t>03,07,26,31,33,41</t>
+          <t>04,14,33,39,40,42</t>
         </is>
       </c>
       <c r="D1741" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1741" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-odd</t>
+          <t>even-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1741" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -49122,26 +49122,26 @@
         <v>1740</v>
       </c>
       <c r="B1742" s="2" t="n">
-        <v>39609</v>
+        <v>39606</v>
       </c>
       <c r="C1742" t="inlineStr">
         <is>
-          <t>04,14,33,39,40,42</t>
+          <t>10,17,20,35,36,39</t>
         </is>
       </c>
       <c r="D1742" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1742" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-even-even</t>
+          <t>even-odd-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -49150,11 +49150,11 @@
         <v>1741</v>
       </c>
       <c r="B1743" s="2" t="n">
-        <v>39606</v>
+        <v>39599</v>
       </c>
       <c r="C1743" t="inlineStr">
         <is>
-          <t>10,17,20,35,36,39</t>
+          <t>03,11,12,18,32,37</t>
         </is>
       </c>
       <c r="D1743" t="inlineStr">
@@ -49164,7 +49164,7 @@
       </c>
       <c r="E1743" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-odd</t>
+          <t>odd-odd-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1743" t="inlineStr">
@@ -49178,26 +49178,26 @@
         <v>1742</v>
       </c>
       <c r="B1744" s="2" t="n">
-        <v>39599</v>
+        <v>39595</v>
       </c>
       <c r="C1744" t="inlineStr">
         <is>
-          <t>03,11,12,18,32,37</t>
+          <t>08,20,23,27,38,40</t>
         </is>
       </c>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1744" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-even-odd</t>
+          <t>even-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -49206,26 +49206,26 @@
         <v>1743</v>
       </c>
       <c r="B1745" s="2" t="n">
-        <v>39595</v>
+        <v>39592</v>
       </c>
       <c r="C1745" t="inlineStr">
         <is>
-          <t>08,20,23,27,38,40</t>
+          <t>09,10,17,21,22,26</t>
         </is>
       </c>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1745" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-even-even</t>
+          <t>odd-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1745" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -49234,11 +49234,11 @@
         <v>1744</v>
       </c>
       <c r="B1746" s="2" t="n">
-        <v>39592</v>
+        <v>39585</v>
       </c>
       <c r="C1746" t="inlineStr">
         <is>
-          <t>09,10,17,21,22,26</t>
+          <t>03,08,11,19,32,35</t>
         </is>
       </c>
       <c r="D1746" t="inlineStr">
@@ -49248,12 +49248,12 @@
       </c>
       <c r="E1746" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-even</t>
+          <t>odd-even-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1746" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -49262,26 +49262,26 @@
         <v>1745</v>
       </c>
       <c r="B1747" s="2" t="n">
-        <v>39585</v>
+        <v>39581</v>
       </c>
       <c r="C1747" t="inlineStr">
         <is>
-          <t>03,08,11,19,32,35</t>
+          <t>22,26,27,31,36,39</t>
         </is>
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1747" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-odd</t>
+          <t>even-even-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1747" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -49290,26 +49290,26 @@
         <v>1746</v>
       </c>
       <c r="B1748" s="2" t="n">
-        <v>39581</v>
+        <v>39578</v>
       </c>
       <c r="C1748" t="inlineStr">
         <is>
-          <t>22,26,27,31,36,39</t>
+          <t>03,12,17,26,32,42</t>
         </is>
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1748" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-even-odd</t>
+          <t>odd-even-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -49318,26 +49318,26 @@
         <v>1747</v>
       </c>
       <c r="B1749" s="2" t="n">
-        <v>39578</v>
+        <v>39574</v>
       </c>
       <c r="C1749" t="inlineStr">
         <is>
-          <t>03,12,17,26,32,42</t>
+          <t>01,06,11,31,35,42</t>
         </is>
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1749" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-even-even</t>
+          <t>odd-even-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -49346,21 +49346,21 @@
         <v>1748</v>
       </c>
       <c r="B1750" s="2" t="n">
-        <v>39574</v>
+        <v>39571</v>
       </c>
       <c r="C1750" t="inlineStr">
         <is>
-          <t>01,06,11,31,35,42</t>
+          <t>01,02,19,23,34,41</t>
         </is>
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1750" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-odd-even</t>
+          <t>odd-even-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1750" t="inlineStr">
@@ -49374,21 +49374,21 @@
         <v>1749</v>
       </c>
       <c r="B1751" s="2" t="n">
-        <v>39571</v>
+        <v>39567</v>
       </c>
       <c r="C1751" t="inlineStr">
         <is>
-          <t>01,02,19,23,34,41</t>
+          <t>07,09,18,28,35,39</t>
         </is>
       </c>
       <c r="D1751" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1751" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-odd</t>
+          <t>odd-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1751" t="inlineStr">
@@ -49402,26 +49402,26 @@
         <v>1750</v>
       </c>
       <c r="B1752" s="2" t="n">
-        <v>39567</v>
+        <v>39564</v>
       </c>
       <c r="C1752" t="inlineStr">
         <is>
-          <t>07,09,18,28,35,39</t>
+          <t>06,09,16,32,34,37</t>
         </is>
       </c>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1752" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-odd</t>
+          <t>even-odd-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1752" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -49430,26 +49430,26 @@
         <v>1751</v>
       </c>
       <c r="B1753" s="2" t="n">
-        <v>39564</v>
+        <v>39560</v>
       </c>
       <c r="C1753" t="inlineStr">
         <is>
-          <t>06,09,16,32,34,37</t>
+          <t>09,15,18,23,28,40</t>
         </is>
       </c>
       <c r="D1753" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1753" t="inlineStr">
         <is>
-          <t>even-odd-even-even-even-odd</t>
+          <t>odd-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1753" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -49458,21 +49458,21 @@
         <v>1752</v>
       </c>
       <c r="B1754" s="2" t="n">
-        <v>39560</v>
+        <v>39557</v>
       </c>
       <c r="C1754" t="inlineStr">
         <is>
-          <t>09,15,18,23,28,40</t>
+          <t>01,16,28,37,41,42</t>
         </is>
       </c>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1754" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-even-even</t>
+          <t>odd-even-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1754" t="inlineStr">
@@ -49486,26 +49486,26 @@
         <v>1753</v>
       </c>
       <c r="B1755" s="2" t="n">
-        <v>39557</v>
+        <v>39553</v>
       </c>
       <c r="C1755" t="inlineStr">
         <is>
-          <t>01,16,28,37,41,42</t>
+          <t>04,06,25,35,38,42</t>
         </is>
       </c>
       <c r="D1755" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1755" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-odd-even</t>
+          <t>even-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1755" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -49514,21 +49514,21 @@
         <v>1754</v>
       </c>
       <c r="B1756" s="2" t="n">
-        <v>39553</v>
+        <v>39550</v>
       </c>
       <c r="C1756" t="inlineStr">
         <is>
-          <t>04,06,25,35,38,42</t>
+          <t>12,22,23,26,36,37</t>
         </is>
       </c>
       <c r="D1756" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1756" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-even-even</t>
+          <t>even-even-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1756" t="inlineStr">
@@ -49542,21 +49542,21 @@
         <v>1755</v>
       </c>
       <c r="B1757" s="2" t="n">
-        <v>39550</v>
+        <v>39546</v>
       </c>
       <c r="C1757" t="inlineStr">
         <is>
-          <t>12,22,23,26,36,37</t>
+          <t>02,25,30,35,36,42</t>
         </is>
       </c>
       <c r="D1757" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1757" t="inlineStr">
         <is>
-          <t>even-even-odd-even-even-odd</t>
+          <t>even-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1757" t="inlineStr">
@@ -49570,26 +49570,26 @@
         <v>1756</v>
       </c>
       <c r="B1758" s="2" t="n">
-        <v>39546</v>
+        <v>39543</v>
       </c>
       <c r="C1758" t="inlineStr">
         <is>
-          <t>02,25,30,35,36,42</t>
+          <t>19,21,29,36,37,42</t>
         </is>
       </c>
       <c r="D1758" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1758" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-even</t>
+          <t>odd-odd-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1758" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -49598,26 +49598,26 @@
         <v>1757</v>
       </c>
       <c r="B1759" s="2" t="n">
-        <v>39543</v>
+        <v>39539</v>
       </c>
       <c r="C1759" t="inlineStr">
         <is>
-          <t>19,21,29,36,37,42</t>
+          <t>01,10,19,21,22,24</t>
         </is>
       </c>
       <c r="D1759" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1759" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-even</t>
+          <t>odd-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1759" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -49626,26 +49626,26 @@
         <v>1758</v>
       </c>
       <c r="B1760" s="2" t="n">
-        <v>39539</v>
+        <v>39536</v>
       </c>
       <c r="C1760" t="inlineStr">
         <is>
-          <t>01,10,19,21,22,24</t>
+          <t>13,14,20,27,30,34</t>
         </is>
       </c>
       <c r="D1760" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1760" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-even</t>
+          <t>odd-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1760" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -49654,26 +49654,26 @@
         <v>1759</v>
       </c>
       <c r="B1761" s="2" t="n">
-        <v>39536</v>
+        <v>39532</v>
       </c>
       <c r="C1761" t="inlineStr">
         <is>
-          <t>13,14,20,27,30,34</t>
+          <t>03,07,20,22,35,42</t>
         </is>
       </c>
       <c r="D1761" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1761" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-even-even</t>
+          <t>odd-odd-even-even-odd-even</t>
         </is>
       </c>
       <c r="F1761" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -49682,11 +49682,11 @@
         <v>1760</v>
       </c>
       <c r="B1762" s="2" t="n">
-        <v>39532</v>
+        <v>39525</v>
       </c>
       <c r="C1762" t="inlineStr">
         <is>
-          <t>03,07,20,22,35,42</t>
+          <t>06,14,20,22,27,29</t>
         </is>
       </c>
       <c r="D1762" t="inlineStr">
@@ -49696,12 +49696,12 @@
       </c>
       <c r="E1762" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-even</t>
+          <t>even-even-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1762" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -49710,26 +49710,26 @@
         <v>1761</v>
       </c>
       <c r="B1763" s="2" t="n">
-        <v>39525</v>
+        <v>39522</v>
       </c>
       <c r="C1763" t="inlineStr">
         <is>
-          <t>06,14,20,22,27,29</t>
+          <t>03,11,13,17,24,31</t>
         </is>
       </c>
       <c r="D1763" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1763" t="inlineStr">
         <is>
-          <t>even-even-even-even-odd-odd</t>
+          <t>odd-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1763" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -49738,26 +49738,26 @@
         <v>1762</v>
       </c>
       <c r="B1764" s="2" t="n">
-        <v>39522</v>
+        <v>39518</v>
       </c>
       <c r="C1764" t="inlineStr">
         <is>
-          <t>03,11,13,17,24,31</t>
+          <t>05,17,28,35,39,42</t>
         </is>
       </c>
       <c r="D1764" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1764" t="inlineStr">
         <is>
-          <t>odd-odd-odd-odd-even-odd</t>
+          <t>odd-odd-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1764" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -49766,26 +49766,26 @@
         <v>1763</v>
       </c>
       <c r="B1765" s="2" t="n">
-        <v>39518</v>
+        <v>39515</v>
       </c>
       <c r="C1765" t="inlineStr">
         <is>
-          <t>05,17,28,35,39,42</t>
+          <t>06,10,11,24,33,42</t>
         </is>
       </c>
       <c r="D1765" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1765" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-even</t>
+          <t>even-even-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1765" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -49794,26 +49794,26 @@
         <v>1764</v>
       </c>
       <c r="B1766" s="2" t="n">
-        <v>39515</v>
+        <v>39511</v>
       </c>
       <c r="C1766" t="inlineStr">
         <is>
-          <t>06,10,11,24,33,42</t>
+          <t>01,15,18,31,35,38</t>
         </is>
       </c>
       <c r="D1766" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1766" t="inlineStr">
         <is>
-          <t>even-even-odd-even-odd-even</t>
+          <t>odd-odd-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1766" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -49822,21 +49822,21 @@
         <v>1765</v>
       </c>
       <c r="B1767" s="2" t="n">
-        <v>39511</v>
+        <v>39508</v>
       </c>
       <c r="C1767" t="inlineStr">
         <is>
-          <t>01,15,18,31,35,38</t>
+          <t>01,07,11,13,24,38</t>
         </is>
       </c>
       <c r="D1767" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1767" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-even</t>
+          <t>odd-odd-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1767" t="inlineStr">
@@ -49850,21 +49850,21 @@
         <v>1766</v>
       </c>
       <c r="B1768" s="2" t="n">
-        <v>39508</v>
+        <v>39504</v>
       </c>
       <c r="C1768" t="inlineStr">
         <is>
-          <t>01,07,11,13,24,38</t>
+          <t>07,11,16,19,33,38</t>
         </is>
       </c>
       <c r="D1768" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1768" t="inlineStr">
         <is>
-          <t>odd-odd-odd-odd-even-even</t>
+          <t>odd-odd-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1768" t="inlineStr">
@@ -49878,26 +49878,26 @@
         <v>1767</v>
       </c>
       <c r="B1769" s="2" t="n">
-        <v>39504</v>
+        <v>39501</v>
       </c>
       <c r="C1769" t="inlineStr">
         <is>
-          <t>07,11,16,19,33,38</t>
+          <t>02,08,21,30,33,34</t>
         </is>
       </c>
       <c r="D1769" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1769" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-even</t>
+          <t>even-even-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1769" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -49906,26 +49906,26 @@
         <v>1768</v>
       </c>
       <c r="B1770" s="2" t="n">
-        <v>39501</v>
+        <v>39497</v>
       </c>
       <c r="C1770" t="inlineStr">
         <is>
-          <t>02,08,21,30,33,34</t>
+          <t>04,10,16,19,24,30</t>
         </is>
       </c>
       <c r="D1770" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1770" t="inlineStr">
         <is>
-          <t>even-even-odd-even-odd-even</t>
+          <t>even-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1770" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -49934,26 +49934,26 @@
         <v>1769</v>
       </c>
       <c r="B1771" s="2" t="n">
-        <v>39497</v>
+        <v>39494</v>
       </c>
       <c r="C1771" t="inlineStr">
         <is>
-          <t>04,10,16,19,24,30</t>
+          <t>03,04,07,08,32,36</t>
         </is>
       </c>
       <c r="D1771" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1771" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-even</t>
+          <t>odd-even-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1771" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -49962,26 +49962,26 @@
         <v>1770</v>
       </c>
       <c r="B1772" s="2" t="n">
-        <v>39494</v>
+        <v>39490</v>
       </c>
       <c r="C1772" t="inlineStr">
         <is>
-          <t>03,04,07,08,32,36</t>
+          <t>04,07,16,24,38,42</t>
         </is>
       </c>
       <c r="D1772" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1772" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-even-even</t>
+          <t>even-odd-even-even-even-even</t>
         </is>
       </c>
       <c r="F1772" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -49990,26 +49990,26 @@
         <v>1771</v>
       </c>
       <c r="B1773" s="2" t="n">
-        <v>39490</v>
+        <v>39487</v>
       </c>
       <c r="C1773" t="inlineStr">
         <is>
-          <t>04,07,16,24,38,42</t>
+          <t>03,05,14,25,36,41</t>
         </is>
       </c>
       <c r="D1773" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1773" t="inlineStr">
         <is>
-          <t>even-odd-even-even-even-even</t>
+          <t>odd-odd-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1773" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -50018,26 +50018,26 @@
         <v>1772</v>
       </c>
       <c r="B1774" s="2" t="n">
-        <v>39487</v>
+        <v>39483</v>
       </c>
       <c r="C1774" t="inlineStr">
         <is>
-          <t>03,05,14,25,36,41</t>
+          <t>02,06,16,27,32,42</t>
         </is>
       </c>
       <c r="D1774" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1774" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-even-odd</t>
+          <t>even-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1774" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -50046,26 +50046,26 @@
         <v>1773</v>
       </c>
       <c r="B1775" s="2" t="n">
-        <v>39483</v>
+        <v>39480</v>
       </c>
       <c r="C1775" t="inlineStr">
         <is>
-          <t>02,06,16,27,32,42</t>
+          <t>09,21,23,24,26,40</t>
         </is>
       </c>
       <c r="D1775" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1775" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-even</t>
+          <t>odd-odd-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1775" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -50074,26 +50074,26 @@
         <v>1774</v>
       </c>
       <c r="B1776" s="2" t="n">
-        <v>39480</v>
+        <v>39476</v>
       </c>
       <c r="C1776" t="inlineStr">
         <is>
-          <t>09,21,23,24,26,40</t>
+          <t>06,08,10,31,41,42</t>
         </is>
       </c>
       <c r="D1776" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1776" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-even-even</t>
+          <t>even-even-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1776" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -50102,26 +50102,26 @@
         <v>1775</v>
       </c>
       <c r="B1777" s="2" t="n">
-        <v>39476</v>
+        <v>39473</v>
       </c>
       <c r="C1777" t="inlineStr">
         <is>
-          <t>06,08,10,31,41,42</t>
+          <t>01,11,21,22,23,29</t>
         </is>
       </c>
       <c r="D1777" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1777" t="inlineStr">
         <is>
-          <t>even-even-even-odd-odd-even</t>
+          <t>odd-odd-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1777" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -50130,16 +50130,16 @@
         <v>1776</v>
       </c>
       <c r="B1778" s="2" t="n">
-        <v>39473</v>
+        <v>39469</v>
       </c>
       <c r="C1778" t="inlineStr">
         <is>
-          <t>01,11,21,22,23,29</t>
+          <t>09,13,15,30,33,39</t>
         </is>
       </c>
       <c r="D1778" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1778" t="inlineStr">
@@ -50158,26 +50158,26 @@
         <v>1777</v>
       </c>
       <c r="B1779" s="2" t="n">
-        <v>39469</v>
+        <v>39466</v>
       </c>
       <c r="C1779" t="inlineStr">
         <is>
-          <t>09,13,15,30,33,39</t>
+          <t>15,16,19,20,31,40</t>
         </is>
       </c>
       <c r="D1779" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1779" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-odd</t>
+          <t>odd-even-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1779" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -50186,26 +50186,26 @@
         <v>1778</v>
       </c>
       <c r="B1780" s="2" t="n">
-        <v>39466</v>
+        <v>39462</v>
       </c>
       <c r="C1780" t="inlineStr">
         <is>
-          <t>15,16,19,20,31,40</t>
+          <t>14,17,21,22,40,42</t>
         </is>
       </c>
       <c r="D1780" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1780" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-odd-even</t>
+          <t>even-odd-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1780" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -50214,26 +50214,26 @@
         <v>1779</v>
       </c>
       <c r="B1781" s="2" t="n">
-        <v>39462</v>
+        <v>39459</v>
       </c>
       <c r="C1781" t="inlineStr">
         <is>
-          <t>14,17,21,22,40,42</t>
+          <t>05,14,15,17,28,34</t>
         </is>
       </c>
       <c r="D1781" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1781" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-even-even</t>
+          <t>odd-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1781" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -50242,26 +50242,26 @@
         <v>1780</v>
       </c>
       <c r="B1782" s="2" t="n">
-        <v>39459</v>
+        <v>39455</v>
       </c>
       <c r="C1782" t="inlineStr">
         <is>
-          <t>05,14,15,17,28,34</t>
+          <t>04,06,15,21,25,29</t>
         </is>
       </c>
       <c r="D1782" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1782" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-even</t>
+          <t>even-even-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1782" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -50270,21 +50270,21 @@
         <v>1781</v>
       </c>
       <c r="B1783" s="2" t="n">
-        <v>39455</v>
+        <v>39445</v>
       </c>
       <c r="C1783" t="inlineStr">
         <is>
-          <t>04,06,15,21,25,29</t>
+          <t>08,19,27,31,34,39</t>
         </is>
       </c>
       <c r="D1783" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-odd-odd</t>
+          <t>even-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1783" t="inlineStr">
@@ -50298,11 +50298,11 @@
         <v>1782</v>
       </c>
       <c r="B1784" s="2" t="n">
-        <v>39445</v>
+        <v>39438</v>
       </c>
       <c r="C1784" t="inlineStr">
         <is>
-          <t>08,19,27,31,34,39</t>
+          <t>03,09,18,25,33,38</t>
         </is>
       </c>
       <c r="D1784" t="inlineStr">
@@ -50312,7 +50312,7 @@
       </c>
       <c r="E1784" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-odd</t>
+          <t>odd-odd-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1784" t="inlineStr">
@@ -50326,26 +50326,26 @@
         <v>1783</v>
       </c>
       <c r="B1785" s="2" t="n">
-        <v>39438</v>
+        <v>39434</v>
       </c>
       <c r="C1785" t="inlineStr">
         <is>
-          <t>03,09,18,25,33,38</t>
+          <t>02,05,13,20,27,36</t>
         </is>
       </c>
       <c r="D1785" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1785" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-even</t>
+          <t>even-odd-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1785" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -50354,26 +50354,26 @@
         <v>1784</v>
       </c>
       <c r="B1786" s="2" t="n">
-        <v>39434</v>
+        <v>39431</v>
       </c>
       <c r="C1786" t="inlineStr">
         <is>
-          <t>02,05,13,20,27,36</t>
+          <t>12,13,14,25,30,34</t>
         </is>
       </c>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-odd-even</t>
+          <t>even-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1786" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -50382,26 +50382,26 @@
         <v>1785</v>
       </c>
       <c r="B1787" s="2" t="n">
-        <v>39431</v>
+        <v>39427</v>
       </c>
       <c r="C1787" t="inlineStr">
         <is>
-          <t>12,13,14,25,30,34</t>
+          <t>08,16,22,24,34,41</t>
         </is>
       </c>
       <c r="D1787" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1787" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-even</t>
+          <t>even-even-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1787" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -50410,26 +50410,26 @@
         <v>1786</v>
       </c>
       <c r="B1788" s="2" t="n">
-        <v>39427</v>
+        <v>39424</v>
       </c>
       <c r="C1788" t="inlineStr">
         <is>
-          <t>08,16,22,24,34,41</t>
+          <t>05,12,16,21,29,34</t>
         </is>
       </c>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1788" t="inlineStr">
         <is>
-          <t>even-even-even-even-even-odd</t>
+          <t>odd-even-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1788" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -50438,21 +50438,21 @@
         <v>1787</v>
       </c>
       <c r="B1789" s="2" t="n">
-        <v>39424</v>
+        <v>39420</v>
       </c>
       <c r="C1789" t="inlineStr">
         <is>
-          <t>05,12,16,21,29,34</t>
+          <t>10,14,19,20,23,35</t>
         </is>
       </c>
       <c r="D1789" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1789" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-odd-even</t>
+          <t>even-even-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1789" t="inlineStr">
@@ -50466,16 +50466,16 @@
         <v>1788</v>
       </c>
       <c r="B1790" s="2" t="n">
-        <v>39420</v>
+        <v>39417</v>
       </c>
       <c r="C1790" t="inlineStr">
         <is>
-          <t>10,14,19,20,23,35</t>
+          <t>14,22,23,26,31,41</t>
         </is>
       </c>
       <c r="D1790" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1790" t="inlineStr">
@@ -50494,26 +50494,26 @@
         <v>1789</v>
       </c>
       <c r="B1791" s="2" t="n">
-        <v>39417</v>
+        <v>39413</v>
       </c>
       <c r="C1791" t="inlineStr">
         <is>
-          <t>14,22,23,26,31,41</t>
+          <t>08,16,17,24,36,40</t>
         </is>
       </c>
       <c r="D1791" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1791" t="inlineStr">
         <is>
-          <t>even-even-odd-even-odd-odd</t>
+          <t>even-even-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1791" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -50522,26 +50522,26 @@
         <v>1790</v>
       </c>
       <c r="B1792" s="2" t="n">
-        <v>39413</v>
+        <v>39410</v>
       </c>
       <c r="C1792" t="inlineStr">
         <is>
-          <t>08,16,17,24,36,40</t>
+          <t>06,11,12,19,40,41</t>
         </is>
       </c>
       <c r="D1792" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1792" t="inlineStr">
         <is>
-          <t>even-even-odd-even-even-even</t>
+          <t>even-odd-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1792" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -50550,16 +50550,16 @@
         <v>1791</v>
       </c>
       <c r="B1793" s="2" t="n">
-        <v>39410</v>
+        <v>39406</v>
       </c>
       <c r="C1793" t="inlineStr">
         <is>
-          <t>06,11,12,19,40,41</t>
+          <t>06,15,20,21,40,41</t>
         </is>
       </c>
       <c r="D1793" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1793" t="inlineStr">
@@ -50578,26 +50578,26 @@
         <v>1792</v>
       </c>
       <c r="B1794" s="2" t="n">
-        <v>39406</v>
+        <v>39403</v>
       </c>
       <c r="C1794" t="inlineStr">
         <is>
-          <t>06,15,20,21,40,41</t>
+          <t>12,16,26,27,29,42</t>
         </is>
       </c>
       <c r="D1794" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1794" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-odd</t>
+          <t>even-even-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1794" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -50606,26 +50606,26 @@
         <v>1793</v>
       </c>
       <c r="B1795" s="2" t="n">
-        <v>39403</v>
+        <v>39399</v>
       </c>
       <c r="C1795" t="inlineStr">
         <is>
-          <t>12,16,26,27,29,42</t>
+          <t>18,24,25,29,37,40</t>
         </is>
       </c>
       <c r="D1795" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1795" t="inlineStr">
         <is>
-          <t>even-even-even-odd-odd-even</t>
+          <t>even-even-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1795" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -50634,16 +50634,16 @@
         <v>1794</v>
       </c>
       <c r="B1796" s="2" t="n">
-        <v>39399</v>
+        <v>39396</v>
       </c>
       <c r="C1796" t="inlineStr">
         <is>
-          <t>18,24,25,29,37,40</t>
+          <t>10,12,13,19,29,38</t>
         </is>
       </c>
       <c r="D1796" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1796" t="inlineStr">
@@ -50662,21 +50662,21 @@
         <v>1795</v>
       </c>
       <c r="B1797" s="2" t="n">
-        <v>39396</v>
+        <v>39392</v>
       </c>
       <c r="C1797" t="inlineStr">
         <is>
-          <t>10,12,13,19,29,38</t>
+          <t>07,30,31,35,36,38</t>
         </is>
       </c>
       <c r="D1797" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1797" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-odd-even</t>
+          <t>odd-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1797" t="inlineStr">
@@ -50690,26 +50690,26 @@
         <v>1796</v>
       </c>
       <c r="B1798" s="2" t="n">
-        <v>39392</v>
+        <v>39389</v>
       </c>
       <c r="C1798" t="inlineStr">
         <is>
-          <t>07,30,31,35,36,38</t>
+          <t>06,08,16,19,25,38</t>
         </is>
       </c>
       <c r="D1798" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1798" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-even</t>
+          <t>even-even-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1798" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -50718,21 +50718,21 @@
         <v>1797</v>
       </c>
       <c r="B1799" s="2" t="n">
-        <v>39389</v>
+        <v>39385</v>
       </c>
       <c r="C1799" t="inlineStr">
         <is>
-          <t>06,08,16,19,25,38</t>
+          <t>06,12,14,21,36,37</t>
         </is>
       </c>
       <c r="D1799" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1799" t="inlineStr">
         <is>
-          <t>even-even-even-odd-odd-even</t>
+          <t>even-even-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1799" t="inlineStr">
@@ -50746,26 +50746,26 @@
         <v>1798</v>
       </c>
       <c r="B1800" s="2" t="n">
-        <v>39385</v>
+        <v>39382</v>
       </c>
       <c r="C1800" t="inlineStr">
         <is>
-          <t>06,12,14,21,36,37</t>
+          <t>03,11,28,30,35,37</t>
         </is>
       </c>
       <c r="D1800" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1800" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-odd</t>
+          <t>odd-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1800" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -50774,26 +50774,26 @@
         <v>1799</v>
       </c>
       <c r="B1801" s="2" t="n">
-        <v>39382</v>
+        <v>39378</v>
       </c>
       <c r="C1801" t="inlineStr">
         <is>
-          <t>03,11,28,30,35,37</t>
+          <t>02,11,23,36,38,42</t>
         </is>
       </c>
       <c r="D1801" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1801" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-odd</t>
+          <t>even-odd-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1801" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -50802,26 +50802,26 @@
         <v>1800</v>
       </c>
       <c r="B1802" s="2" t="n">
-        <v>39378</v>
+        <v>39375</v>
       </c>
       <c r="C1802" t="inlineStr">
         <is>
-          <t>02,11,23,36,38,42</t>
+          <t>14,30,34,38,40,41</t>
         </is>
       </c>
       <c r="D1802" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1802" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-even-even</t>
+          <t>even-even-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1802" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -50830,26 +50830,26 @@
         <v>1801</v>
       </c>
       <c r="B1803" s="2" t="n">
-        <v>39375</v>
+        <v>39371</v>
       </c>
       <c r="C1803" t="inlineStr">
         <is>
-          <t>14,30,34,38,40,41</t>
+          <t>13,21,26,32,39,41</t>
         </is>
       </c>
       <c r="D1803" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1803" t="inlineStr">
         <is>
-          <t>even-even-even-even-even-odd</t>
+          <t>odd-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1803" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -50858,21 +50858,21 @@
         <v>1802</v>
       </c>
       <c r="B1804" s="2" t="n">
-        <v>39371</v>
+        <v>39368</v>
       </c>
       <c r="C1804" t="inlineStr">
         <is>
-          <t>13,21,26,32,39,41</t>
+          <t>08,09,27,33,36,41</t>
         </is>
       </c>
       <c r="D1804" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1804" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-odd</t>
+          <t>even-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1804" t="inlineStr">
@@ -50886,26 +50886,26 @@
         <v>1803</v>
       </c>
       <c r="B1805" s="2" t="n">
-        <v>39368</v>
+        <v>39364</v>
       </c>
       <c r="C1805" t="inlineStr">
         <is>
-          <t>08,09,27,33,36,41</t>
+          <t>04,22,31,34,39,40</t>
         </is>
       </c>
       <c r="D1805" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1805" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-odd</t>
+          <t>even-even-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1805" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -50914,26 +50914,26 @@
         <v>1804</v>
       </c>
       <c r="B1806" s="2" t="n">
-        <v>39364</v>
+        <v>39361</v>
       </c>
       <c r="C1806" t="inlineStr">
         <is>
-          <t>04,22,31,34,39,40</t>
+          <t>03,06,20,25,27,41</t>
         </is>
       </c>
       <c r="D1806" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1806" t="inlineStr">
         <is>
-          <t>even-even-odd-even-odd-even</t>
+          <t>odd-even-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1806" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -50942,11 +50942,11 @@
         <v>1805</v>
       </c>
       <c r="B1807" s="2" t="n">
-        <v>39361</v>
+        <v>39354</v>
       </c>
       <c r="C1807" t="inlineStr">
         <is>
-          <t>03,06,20,25,27,41</t>
+          <t>06,09,11,21,27,35</t>
         </is>
       </c>
       <c r="D1807" t="inlineStr">
@@ -50956,12 +50956,12 @@
       </c>
       <c r="E1807" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-odd-odd</t>
+          <t>even-odd-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1807" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -50970,26 +50970,26 @@
         <v>1806</v>
       </c>
       <c r="B1808" s="2" t="n">
-        <v>39354</v>
+        <v>39350</v>
       </c>
       <c r="C1808" t="inlineStr">
         <is>
-          <t>06,09,11,21,27,35</t>
+          <t>06,19,28,33,34,42</t>
         </is>
       </c>
       <c r="D1808" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1808" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-odd-odd</t>
+          <t>even-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1808" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -50998,26 +50998,26 @@
         <v>1807</v>
       </c>
       <c r="B1809" s="2" t="n">
-        <v>39350</v>
+        <v>39347</v>
       </c>
       <c r="C1809" t="inlineStr">
         <is>
-          <t>06,19,28,33,34,42</t>
+          <t>01,05,21,22,27,29</t>
         </is>
       </c>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1809" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-even</t>
+          <t>odd-odd-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1809" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -51026,26 +51026,26 @@
         <v>1808</v>
       </c>
       <c r="B1810" s="2" t="n">
-        <v>39347</v>
+        <v>39343</v>
       </c>
       <c r="C1810" t="inlineStr">
         <is>
-          <t>01,05,21,22,27,29</t>
+          <t>13,17,18,22,25,35</t>
         </is>
       </c>
       <c r="D1810" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1810" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-odd</t>
+          <t>odd-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1810" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -51054,21 +51054,21 @@
         <v>1809</v>
       </c>
       <c r="B1811" s="2" t="n">
-        <v>39343</v>
+        <v>39340</v>
       </c>
       <c r="C1811" t="inlineStr">
         <is>
-          <t>13,17,18,22,25,35</t>
+          <t>15,17,21,22,23,24</t>
         </is>
       </c>
       <c r="D1811" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1811" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-odd</t>
+          <t>odd-odd-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1811" t="inlineStr">
@@ -51082,26 +51082,26 @@
         <v>1810</v>
       </c>
       <c r="B1812" s="2" t="n">
-        <v>39340</v>
+        <v>39336</v>
       </c>
       <c r="C1812" t="inlineStr">
         <is>
-          <t>15,17,21,22,23,24</t>
+          <t>04,13,17,26,34,35</t>
         </is>
       </c>
       <c r="D1812" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1812" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-even</t>
+          <t>even-odd-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1812" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -51110,26 +51110,26 @@
         <v>1811</v>
       </c>
       <c r="B1813" s="2" t="n">
-        <v>39336</v>
+        <v>39333</v>
       </c>
       <c r="C1813" t="inlineStr">
         <is>
-          <t>04,13,17,26,34,35</t>
+          <t>07,17,22,27,31,39</t>
         </is>
       </c>
       <c r="D1813" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1813" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-even-odd</t>
+          <t>odd-odd-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1813" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -51138,26 +51138,26 @@
         <v>1812</v>
       </c>
       <c r="B1814" s="2" t="n">
-        <v>39333</v>
+        <v>39329</v>
       </c>
       <c r="C1814" t="inlineStr">
         <is>
-          <t>07,17,22,27,31,39</t>
+          <t>06,22,32,36,37,39</t>
         </is>
       </c>
       <c r="D1814" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1814" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-odd</t>
+          <t>even-even-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1814" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -51166,21 +51166,21 @@
         <v>1813</v>
       </c>
       <c r="B1815" s="2" t="n">
-        <v>39329</v>
+        <v>39326</v>
       </c>
       <c r="C1815" t="inlineStr">
         <is>
-          <t>06,22,32,36,37,39</t>
+          <t>03,06,10,16,26,27</t>
         </is>
       </c>
       <c r="D1815" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1815" t="inlineStr">
         <is>
-          <t>even-even-even-even-odd-odd</t>
+          <t>odd-even-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1815" t="inlineStr">
@@ -51194,21 +51194,21 @@
         <v>1814</v>
       </c>
       <c r="B1816" s="2" t="n">
-        <v>39326</v>
+        <v>39322</v>
       </c>
       <c r="C1816" t="inlineStr">
         <is>
-          <t>03,06,10,16,26,27</t>
+          <t>01,04,11,32,40,42</t>
         </is>
       </c>
       <c r="D1816" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1816" t="inlineStr">
         <is>
-          <t>odd-even-even-even-even-odd</t>
+          <t>odd-even-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1816" t="inlineStr">
@@ -51222,21 +51222,21 @@
         <v>1815</v>
       </c>
       <c r="B1817" s="2" t="n">
-        <v>39322</v>
+        <v>39319</v>
       </c>
       <c r="C1817" t="inlineStr">
         <is>
-          <t>01,04,11,32,40,42</t>
+          <t>04,16,22,26,35,37</t>
         </is>
       </c>
       <c r="D1817" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1817" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-even-even</t>
+          <t>even-even-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1817" t="inlineStr">
@@ -51250,26 +51250,26 @@
         <v>1816</v>
       </c>
       <c r="B1818" s="2" t="n">
-        <v>39319</v>
+        <v>39315</v>
       </c>
       <c r="C1818" t="inlineStr">
         <is>
-          <t>04,16,22,26,35,37</t>
+          <t>01,03,12,18,24,31</t>
         </is>
       </c>
       <c r="D1818" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1818" t="inlineStr">
         <is>
-          <t>even-even-even-even-odd-odd</t>
+          <t>odd-odd-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1818" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -51278,26 +51278,26 @@
         <v>1817</v>
       </c>
       <c r="B1819" s="2" t="n">
-        <v>39315</v>
+        <v>39312</v>
       </c>
       <c r="C1819" t="inlineStr">
         <is>
-          <t>01,03,12,18,24,31</t>
+          <t>05,08,16,31,36,42</t>
         </is>
       </c>
       <c r="D1819" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1819" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-even-odd</t>
+          <t>odd-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1819" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -51306,26 +51306,26 @@
         <v>1818</v>
       </c>
       <c r="B1820" s="2" t="n">
-        <v>39312</v>
+        <v>39308</v>
       </c>
       <c r="C1820" t="inlineStr">
         <is>
-          <t>05,08,16,31,36,42</t>
+          <t>06,09,19,27,37,40</t>
         </is>
       </c>
       <c r="D1820" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1820" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-even-even</t>
+          <t>even-odd-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1820" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -51334,26 +51334,26 @@
         <v>1819</v>
       </c>
       <c r="B1821" s="2" t="n">
-        <v>39308</v>
+        <v>39305</v>
       </c>
       <c r="C1821" t="inlineStr">
         <is>
-          <t>06,09,19,27,37,40</t>
+          <t>10,12,14,21,26,30</t>
         </is>
       </c>
       <c r="D1821" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1821" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-odd-even</t>
+          <t>even-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1821" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -51362,26 +51362,26 @@
         <v>1820</v>
       </c>
       <c r="B1822" s="2" t="n">
-        <v>39305</v>
+        <v>39301</v>
       </c>
       <c r="C1822" t="inlineStr">
         <is>
-          <t>10,12,14,21,26,30</t>
+          <t>05,19,20,31,35,39</t>
         </is>
       </c>
       <c r="D1822" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1822" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-even</t>
+          <t>odd-odd-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1822" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -51390,26 +51390,26 @@
         <v>1821</v>
       </c>
       <c r="B1823" s="2" t="n">
-        <v>39301</v>
+        <v>39298</v>
       </c>
       <c r="C1823" t="inlineStr">
         <is>
-          <t>05,19,20,31,35,39</t>
+          <t>02,05,14,26,37,42</t>
         </is>
       </c>
       <c r="D1823" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1823" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-odd</t>
+          <t>even-odd-even-even-odd-even</t>
         </is>
       </c>
       <c r="F1823" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -51418,26 +51418,26 @@
         <v>1822</v>
       </c>
       <c r="B1824" s="2" t="n">
-        <v>39298</v>
+        <v>39294</v>
       </c>
       <c r="C1824" t="inlineStr">
         <is>
-          <t>02,05,14,26,37,42</t>
+          <t>01,02,11,26,29,40</t>
         </is>
       </c>
       <c r="D1824" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1824" t="inlineStr">
         <is>
-          <t>even-odd-even-even-odd-even</t>
+          <t>odd-even-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1824" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -51446,26 +51446,26 @@
         <v>1823</v>
       </c>
       <c r="B1825" s="2" t="n">
-        <v>39294</v>
+        <v>39291</v>
       </c>
       <c r="C1825" t="inlineStr">
         <is>
-          <t>01,02,11,26,29,40</t>
+          <t>02,08,10,17,34,42</t>
         </is>
       </c>
       <c r="D1825" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1825" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-odd-even</t>
+          <t>even-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1825" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -51474,26 +51474,26 @@
         <v>1824</v>
       </c>
       <c r="B1826" s="2" t="n">
-        <v>39291</v>
+        <v>39287</v>
       </c>
       <c r="C1826" t="inlineStr">
         <is>
-          <t>02,08,10,17,34,42</t>
+          <t>04,13,15,22,28,42</t>
         </is>
       </c>
       <c r="D1826" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1826" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-even</t>
+          <t>even-odd-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1826" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -51502,11 +51502,11 @@
         <v>1825</v>
       </c>
       <c r="B1827" s="2" t="n">
-        <v>39287</v>
+        <v>39280</v>
       </c>
       <c r="C1827" t="inlineStr">
         <is>
-          <t>04,13,15,22,28,42</t>
+          <t>01,07,10,16,19,31</t>
         </is>
       </c>
       <c r="D1827" t="inlineStr">
@@ -51516,12 +51516,12 @@
       </c>
       <c r="E1827" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-even-even</t>
+          <t>odd-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1827" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -51530,26 +51530,26 @@
         <v>1826</v>
       </c>
       <c r="B1828" s="2" t="n">
-        <v>39280</v>
+        <v>39277</v>
       </c>
       <c r="C1828" t="inlineStr">
         <is>
-          <t>01,07,10,16,19,31</t>
+          <t>16,20,24,28,30,33</t>
         </is>
       </c>
       <c r="D1828" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1828" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-odd-odd</t>
+          <t>even-even-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1828" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -51558,26 +51558,26 @@
         <v>1827</v>
       </c>
       <c r="B1829" s="2" t="n">
-        <v>39277</v>
+        <v>39273</v>
       </c>
       <c r="C1829" t="inlineStr">
         <is>
-          <t>16,20,24,28,30,33</t>
+          <t>13,16,17,19,29,30</t>
         </is>
       </c>
       <c r="D1829" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1829" t="inlineStr">
         <is>
-          <t>even-even-even-even-even-odd</t>
+          <t>odd-even-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1829" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -51586,21 +51586,21 @@
         <v>1828</v>
       </c>
       <c r="B1830" s="2" t="n">
-        <v>39273</v>
+        <v>39270</v>
       </c>
       <c r="C1830" t="inlineStr">
         <is>
-          <t>13,16,17,19,29,30</t>
+          <t>04,06,11,19,31,39</t>
         </is>
       </c>
       <c r="D1830" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1830" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-odd-even</t>
+          <t>even-even-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1830" t="inlineStr">
@@ -51614,26 +51614,26 @@
         <v>1829</v>
       </c>
       <c r="B1831" s="2" t="n">
-        <v>39270</v>
+        <v>39266</v>
       </c>
       <c r="C1831" t="inlineStr">
         <is>
-          <t>04,06,11,19,31,39</t>
+          <t>01,15,22,27,37,41</t>
         </is>
       </c>
       <c r="D1831" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1831" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-odd-odd</t>
+          <t>odd-odd-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1831" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -51642,21 +51642,21 @@
         <v>1830</v>
       </c>
       <c r="B1832" s="2" t="n">
-        <v>39266</v>
+        <v>39263</v>
       </c>
       <c r="C1832" t="inlineStr">
         <is>
-          <t>01,15,22,27,37,41</t>
+          <t>05,15,19,21,28,41</t>
         </is>
       </c>
       <c r="D1832" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1832" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-odd</t>
+          <t>odd-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1832" t="inlineStr">
@@ -51670,26 +51670,26 @@
         <v>1831</v>
       </c>
       <c r="B1833" s="2" t="n">
-        <v>39263</v>
+        <v>39259</v>
       </c>
       <c r="C1833" t="inlineStr">
         <is>
-          <t>05,15,19,21,28,41</t>
+          <t>11,16,26,27,32,33</t>
         </is>
       </c>
       <c r="D1833" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1833" t="inlineStr">
         <is>
-          <t>odd-odd-odd-odd-even-odd</t>
+          <t>odd-even-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1833" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -51698,26 +51698,26 @@
         <v>1832</v>
       </c>
       <c r="B1834" s="2" t="n">
-        <v>39259</v>
+        <v>39256</v>
       </c>
       <c r="C1834" t="inlineStr">
         <is>
-          <t>11,16,26,27,32,33</t>
+          <t>01,03,11,13,14,27</t>
         </is>
       </c>
       <c r="D1834" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1834" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-even-odd</t>
+          <t>odd-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1834" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -51726,26 +51726,26 @@
         <v>1833</v>
       </c>
       <c r="B1835" s="2" t="n">
-        <v>39256</v>
+        <v>39252</v>
       </c>
       <c r="C1835" t="inlineStr">
         <is>
-          <t>01,03,11,13,14,27</t>
+          <t>07,25,31,34,35,40</t>
         </is>
       </c>
       <c r="D1835" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1835" t="inlineStr">
         <is>
-          <t>odd-odd-odd-odd-even-odd</t>
+          <t>odd-odd-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1835" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -51754,21 +51754,21 @@
         <v>1834</v>
       </c>
       <c r="B1836" s="2" t="n">
-        <v>39252</v>
+        <v>39249</v>
       </c>
       <c r="C1836" t="inlineStr">
         <is>
-          <t>07,25,31,34,35,40</t>
+          <t>09,10,12,17,21,37</t>
         </is>
       </c>
       <c r="D1836" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1836" t="inlineStr">
         <is>
-          <t>odd-odd-odd-even-odd-even</t>
+          <t>odd-even-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1836" t="inlineStr">
@@ -51782,21 +51782,21 @@
         <v>1835</v>
       </c>
       <c r="B1837" s="2" t="n">
-        <v>39249</v>
+        <v>39245</v>
       </c>
       <c r="C1837" t="inlineStr">
         <is>
-          <t>09,10,12,17,21,37</t>
+          <t>02,07,19,25,38,41</t>
         </is>
       </c>
       <c r="D1837" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1837" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-odd-odd</t>
+          <t>even-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1837" t="inlineStr">
@@ -51810,26 +51810,26 @@
         <v>1836</v>
       </c>
       <c r="B1838" s="2" t="n">
-        <v>39245</v>
+        <v>39242</v>
       </c>
       <c r="C1838" t="inlineStr">
         <is>
-          <t>02,07,19,25,38,41</t>
+          <t>11,13,14,15,24,42</t>
         </is>
       </c>
       <c r="D1838" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1838" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-odd</t>
+          <t>odd-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1838" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -51838,21 +51838,21 @@
         <v>1837</v>
       </c>
       <c r="B1839" s="2" t="n">
-        <v>39242</v>
+        <v>39238</v>
       </c>
       <c r="C1839" t="inlineStr">
         <is>
-          <t>11,13,14,15,24,42</t>
+          <t>23,28,32,33,34,39</t>
         </is>
       </c>
       <c r="D1839" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1839" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-even-even</t>
+          <t>odd-even-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1839" t="inlineStr">
@@ -51866,26 +51866,26 @@
         <v>1838</v>
       </c>
       <c r="B1840" s="2" t="n">
-        <v>39238</v>
+        <v>39235</v>
       </c>
       <c r="C1840" t="inlineStr">
         <is>
-          <t>23,28,32,33,34,39</t>
+          <t>12,19,37,39,40,41</t>
         </is>
       </c>
       <c r="D1840" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1840" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-even-odd</t>
+          <t>even-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1840" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -51894,26 +51894,26 @@
         <v>1839</v>
       </c>
       <c r="B1841" s="2" t="n">
-        <v>39235</v>
+        <v>39231</v>
       </c>
       <c r="C1841" t="inlineStr">
         <is>
-          <t>12,19,37,39,40,41</t>
+          <t>09,11,12,14,18,22</t>
         </is>
       </c>
       <c r="D1841" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1841" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-odd</t>
+          <t>odd-odd-even-even-even-even</t>
         </is>
       </c>
       <c r="F1841" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -51922,26 +51922,26 @@
         <v>1840</v>
       </c>
       <c r="B1842" s="2" t="n">
-        <v>39231</v>
+        <v>39228</v>
       </c>
       <c r="C1842" t="inlineStr">
         <is>
-          <t>09,11,12,14,18,22</t>
+          <t>01,07,12,13,40,42</t>
         </is>
       </c>
       <c r="D1842" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1842" t="inlineStr">
         <is>
-          <t>odd-odd-even-even-even-even</t>
+          <t>odd-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1842" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -51950,26 +51950,26 @@
         <v>1841</v>
       </c>
       <c r="B1843" s="2" t="n">
-        <v>39228</v>
+        <v>39224</v>
       </c>
       <c r="C1843" t="inlineStr">
         <is>
-          <t>01,07,12,13,40,42</t>
+          <t>04,14,18,23,34,39</t>
         </is>
       </c>
       <c r="D1843" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1843" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-even-even</t>
+          <t>even-even-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1843" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -51978,26 +51978,26 @@
         <v>1842</v>
       </c>
       <c r="B1844" s="2" t="n">
-        <v>39224</v>
+        <v>39221</v>
       </c>
       <c r="C1844" t="inlineStr">
         <is>
-          <t>04,14,18,23,34,39</t>
+          <t>08,10,18,30,32,34</t>
         </is>
       </c>
       <c r="D1844" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1844" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-odd</t>
+          <t>even-even-even-even-even-even</t>
         </is>
       </c>
       <c r="F1844" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 6, Odd: 0</t>
         </is>
       </c>
     </row>
@@ -52006,26 +52006,26 @@
         <v>1843</v>
       </c>
       <c r="B1845" s="2" t="n">
-        <v>39221</v>
+        <v>39217</v>
       </c>
       <c r="C1845" t="inlineStr">
         <is>
-          <t>08,10,18,30,32,34</t>
+          <t>03,06,13,14,38,41</t>
         </is>
       </c>
       <c r="D1845" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1845" t="inlineStr">
         <is>
-          <t>even-even-even-even-even-even</t>
+          <t>odd-even-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1845" t="inlineStr">
         <is>
-          <t>Even: 6, Odd: 0</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -52034,21 +52034,21 @@
         <v>1844</v>
       </c>
       <c r="B1846" s="2" t="n">
-        <v>39217</v>
+        <v>39214</v>
       </c>
       <c r="C1846" t="inlineStr">
         <is>
-          <t>03,06,13,14,38,41</t>
+          <t>02,03,24,27,38,41</t>
         </is>
       </c>
       <c r="D1846" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1846" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-even-odd</t>
+          <t>even-odd-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1846" t="inlineStr">
@@ -52062,21 +52062,21 @@
         <v>1845</v>
       </c>
       <c r="B1847" s="2" t="n">
-        <v>39214</v>
+        <v>39210</v>
       </c>
       <c r="C1847" t="inlineStr">
         <is>
-          <t>02,03,24,27,38,41</t>
+          <t>08,12,13,19,20,21</t>
         </is>
       </c>
       <c r="D1847" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1847" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-odd</t>
+          <t>even-even-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1847" t="inlineStr">
@@ -52090,26 +52090,26 @@
         <v>1846</v>
       </c>
       <c r="B1848" s="2" t="n">
-        <v>39210</v>
+        <v>39207</v>
       </c>
       <c r="C1848" t="inlineStr">
         <is>
-          <t>08,12,13,19,20,21</t>
+          <t>06,11,12,16,21,26</t>
         </is>
       </c>
       <c r="D1848" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1848" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-even-odd</t>
+          <t>even-odd-even-even-odd-even</t>
         </is>
       </c>
       <c r="F1848" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -52118,26 +52118,26 @@
         <v>1847</v>
       </c>
       <c r="B1849" s="2" t="n">
-        <v>39207</v>
+        <v>39203</v>
       </c>
       <c r="C1849" t="inlineStr">
         <is>
-          <t>06,11,12,16,21,26</t>
+          <t>08,11,22,28,30,40</t>
         </is>
       </c>
       <c r="D1849" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1849" t="inlineStr">
         <is>
-          <t>even-odd-even-even-odd-even</t>
+          <t>even-odd-even-even-even-even</t>
         </is>
       </c>
       <c r="F1849" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -52146,11 +52146,11 @@
         <v>1848</v>
       </c>
       <c r="B1850" s="2" t="n">
-        <v>39203</v>
+        <v>39196</v>
       </c>
       <c r="C1850" t="inlineStr">
         <is>
-          <t>08,11,22,28,30,40</t>
+          <t>16,18,19,25,31,36</t>
         </is>
       </c>
       <c r="D1850" t="inlineStr">
@@ -52160,12 +52160,12 @@
       </c>
       <c r="E1850" t="inlineStr">
         <is>
-          <t>even-odd-even-even-even-even</t>
+          <t>even-even-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1850" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -52174,26 +52174,26 @@
         <v>1849</v>
       </c>
       <c r="B1851" s="2" t="n">
-        <v>39196</v>
+        <v>39193</v>
       </c>
       <c r="C1851" t="inlineStr">
         <is>
-          <t>16,18,19,25,31,36</t>
+          <t>04,11,12,30,31,40</t>
         </is>
       </c>
       <c r="D1851" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1851" t="inlineStr">
         <is>
-          <t>even-even-odd-odd-odd-even</t>
+          <t>even-odd-even-even-odd-even</t>
         </is>
       </c>
       <c r="F1851" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -52202,26 +52202,26 @@
         <v>1850</v>
       </c>
       <c r="B1852" s="2" t="n">
-        <v>39193</v>
+        <v>39189</v>
       </c>
       <c r="C1852" t="inlineStr">
         <is>
-          <t>04,11,12,30,31,40</t>
+          <t>12,13,16,20,26,40</t>
         </is>
       </c>
       <c r="D1852" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1852" t="inlineStr">
         <is>
-          <t>even-odd-even-even-odd-even</t>
+          <t>even-odd-even-even-even-even</t>
         </is>
       </c>
       <c r="F1852" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -52230,26 +52230,26 @@
         <v>1851</v>
       </c>
       <c r="B1853" s="2" t="n">
-        <v>39189</v>
+        <v>39186</v>
       </c>
       <c r="C1853" t="inlineStr">
         <is>
-          <t>12,13,16,20,26,40</t>
+          <t>12,13,23,26,29,37</t>
         </is>
       </c>
       <c r="D1853" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1853" t="inlineStr">
         <is>
-          <t>even-odd-even-even-even-even</t>
+          <t>even-odd-odd-even-odd-odd</t>
         </is>
       </c>
       <c r="F1853" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -52258,21 +52258,21 @@
         <v>1852</v>
       </c>
       <c r="B1854" s="2" t="n">
-        <v>39186</v>
+        <v>39182</v>
       </c>
       <c r="C1854" t="inlineStr">
         <is>
-          <t>12,13,23,26,29,37</t>
+          <t>01,16,21,29,31,34</t>
         </is>
       </c>
       <c r="D1854" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1854" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-odd-odd</t>
+          <t>odd-even-odd-odd-odd-even</t>
         </is>
       </c>
       <c r="F1854" t="inlineStr">
@@ -52286,26 +52286,26 @@
         <v>1853</v>
       </c>
       <c r="B1855" s="2" t="n">
-        <v>39182</v>
+        <v>39172</v>
       </c>
       <c r="C1855" t="inlineStr">
         <is>
-          <t>01,16,21,29,31,34</t>
+          <t>01,19,26,31,33,41</t>
         </is>
       </c>
       <c r="D1855" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1855" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-odd-even</t>
+          <t>odd-odd-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1855" t="inlineStr">
         <is>
-          <t>Even: 2, Odd: 4</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -52314,26 +52314,26 @@
         <v>1854</v>
       </c>
       <c r="B1856" s="2" t="n">
-        <v>39172</v>
+        <v>39168</v>
       </c>
       <c r="C1856" t="inlineStr">
         <is>
-          <t>01,19,26,31,33,41</t>
+          <t>15,20,21,23,30,36</t>
         </is>
       </c>
       <c r="D1856" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1856" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-odd</t>
+          <t>odd-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1856" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -52342,26 +52342,26 @@
         <v>1855</v>
       </c>
       <c r="B1857" s="2" t="n">
-        <v>39168</v>
+        <v>39165</v>
       </c>
       <c r="C1857" t="inlineStr">
         <is>
-          <t>15,20,21,23,30,36</t>
+          <t>20,24,27,28,38,42</t>
         </is>
       </c>
       <c r="D1857" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1857" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-even</t>
+          <t>even-even-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1857" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -52370,26 +52370,26 @@
         <v>1856</v>
       </c>
       <c r="B1858" s="2" t="n">
-        <v>39165</v>
+        <v>39161</v>
       </c>
       <c r="C1858" t="inlineStr">
         <is>
-          <t>20,24,27,28,38,42</t>
+          <t>03,18,20,36,38,41</t>
         </is>
       </c>
       <c r="D1858" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1858" t="inlineStr">
         <is>
-          <t>even-even-odd-even-even-even</t>
+          <t>odd-even-even-even-even-odd</t>
         </is>
       </c>
       <c r="F1858" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -52398,11 +52398,11 @@
         <v>1857</v>
       </c>
       <c r="B1859" s="2" t="n">
-        <v>39161</v>
+        <v>39154</v>
       </c>
       <c r="C1859" t="inlineStr">
         <is>
-          <t>03,18,20,36,38,41</t>
+          <t>17,18,23,36,38,39</t>
         </is>
       </c>
       <c r="D1859" t="inlineStr">
@@ -52412,12 +52412,12 @@
       </c>
       <c r="E1859" t="inlineStr">
         <is>
-          <t>odd-even-even-even-even-odd</t>
+          <t>odd-even-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1859" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -52426,26 +52426,26 @@
         <v>1858</v>
       </c>
       <c r="B1860" s="2" t="n">
-        <v>39154</v>
+        <v>39151</v>
       </c>
       <c r="C1860" t="inlineStr">
         <is>
-          <t>17,18,23,36,38,39</t>
+          <t>08,16,26,27,28,31</t>
         </is>
       </c>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1860" t="inlineStr">
         <is>
-          <t>odd-even-odd-even-even-odd</t>
+          <t>even-even-even-odd-even-odd</t>
         </is>
       </c>
       <c r="F1860" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -52454,26 +52454,26 @@
         <v>1859</v>
       </c>
       <c r="B1861" s="2" t="n">
-        <v>39151</v>
+        <v>39147</v>
       </c>
       <c r="C1861" t="inlineStr">
         <is>
-          <t>08,16,26,27,28,31</t>
+          <t>08,12,13,24,26,34</t>
         </is>
       </c>
       <c r="D1861" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1861" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-odd</t>
+          <t>even-even-odd-even-even-even</t>
         </is>
       </c>
       <c r="F1861" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -52482,26 +52482,26 @@
         <v>1860</v>
       </c>
       <c r="B1862" s="2" t="n">
-        <v>39147</v>
+        <v>39144</v>
       </c>
       <c r="C1862" t="inlineStr">
         <is>
-          <t>08,12,13,24,26,34</t>
+          <t>02,15,20,25,35,40</t>
         </is>
       </c>
       <c r="D1862" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1862" t="inlineStr">
         <is>
-          <t>even-even-odd-even-even-even</t>
+          <t>even-odd-even-odd-odd-even</t>
         </is>
       </c>
       <c r="F1862" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -52510,26 +52510,26 @@
         <v>1861</v>
       </c>
       <c r="B1863" s="2" t="n">
-        <v>39144</v>
+        <v>39140</v>
       </c>
       <c r="C1863" t="inlineStr">
         <is>
-          <t>02,15,20,25,35,40</t>
+          <t>07,17,27,29,37,39</t>
         </is>
       </c>
       <c r="D1863" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1863" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-odd-even</t>
+          <t>odd-odd-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1863" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 0, Odd: 6</t>
         </is>
       </c>
     </row>
@@ -52538,26 +52538,26 @@
         <v>1862</v>
       </c>
       <c r="B1864" s="2" t="n">
-        <v>39140</v>
+        <v>39137</v>
       </c>
       <c r="C1864" t="inlineStr">
         <is>
-          <t>07,17,27,29,37,39</t>
+          <t>02,07,22,25,26,36</t>
         </is>
       </c>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1864" t="inlineStr">
         <is>
-          <t>odd-odd-odd-odd-odd-odd</t>
+          <t>even-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1864" t="inlineStr">
         <is>
-          <t>Even: 0, Odd: 6</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -52566,26 +52566,26 @@
         <v>1863</v>
       </c>
       <c r="B1865" s="2" t="n">
-        <v>39137</v>
+        <v>39133</v>
       </c>
       <c r="C1865" t="inlineStr">
         <is>
-          <t>02,07,22,25,26,36</t>
+          <t>17,23,27,29,30,35</t>
         </is>
       </c>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1865" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-even</t>
+          <t>odd-odd-odd-odd-even-odd</t>
         </is>
       </c>
       <c r="F1865" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -52594,26 +52594,26 @@
         <v>1864</v>
       </c>
       <c r="B1866" s="2" t="n">
-        <v>39133</v>
+        <v>39130</v>
       </c>
       <c r="C1866" t="inlineStr">
         <is>
-          <t>17,23,27,29,30,35</t>
+          <t>02,04,18,27,38,42</t>
         </is>
       </c>
       <c r="D1866" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1866" t="inlineStr">
         <is>
-          <t>odd-odd-odd-odd-even-odd</t>
+          <t>even-even-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1866" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 5, Odd: 1</t>
         </is>
       </c>
     </row>
@@ -52622,16 +52622,16 @@
         <v>1865</v>
       </c>
       <c r="B1867" s="2" t="n">
-        <v>39130</v>
+        <v>39126</v>
       </c>
       <c r="C1867" t="inlineStr">
         <is>
-          <t>02,04,18,27,38,42</t>
+          <t>06,18,20,27,30,42</t>
         </is>
       </c>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1867" t="inlineStr">
@@ -52650,26 +52650,26 @@
         <v>1866</v>
       </c>
       <c r="B1868" s="2" t="n">
-        <v>39126</v>
+        <v>39123</v>
       </c>
       <c r="C1868" t="inlineStr">
         <is>
-          <t>06,18,20,27,30,42</t>
+          <t>12,29,33,37,38,40</t>
         </is>
       </c>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1868" t="inlineStr">
         <is>
-          <t>even-even-even-odd-even-even</t>
+          <t>even-odd-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1868" t="inlineStr">
         <is>
-          <t>Even: 5, Odd: 1</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -52678,21 +52678,21 @@
         <v>1867</v>
       </c>
       <c r="B1869" s="2" t="n">
-        <v>39123</v>
+        <v>39119</v>
       </c>
       <c r="C1869" t="inlineStr">
         <is>
-          <t>12,29,33,37,38,40</t>
+          <t>03,06,13,31,36,42</t>
         </is>
       </c>
       <c r="D1869" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1869" t="inlineStr">
         <is>
-          <t>even-odd-odd-odd-even-even</t>
+          <t>odd-even-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1869" t="inlineStr">
@@ -52706,26 +52706,26 @@
         <v>1868</v>
       </c>
       <c r="B1870" s="2" t="n">
-        <v>39119</v>
+        <v>39116</v>
       </c>
       <c r="C1870" t="inlineStr">
         <is>
-          <t>03,06,13,31,36,42</t>
+          <t>04,21,24,27,30,34</t>
         </is>
       </c>
       <c r="D1870" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1870" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-even-even</t>
+          <t>even-odd-even-odd-even-even</t>
         </is>
       </c>
       <c r="F1870" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -52734,26 +52734,26 @@
         <v>1869</v>
       </c>
       <c r="B1871" s="2" t="n">
-        <v>39116</v>
+        <v>39112</v>
       </c>
       <c r="C1871" t="inlineStr">
         <is>
-          <t>04,21,24,27,30,34</t>
+          <t>02,03,13,14,26,37</t>
         </is>
       </c>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1871" t="inlineStr">
         <is>
-          <t>even-odd-even-odd-even-even</t>
+          <t>even-odd-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1871" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 3, Odd: 3</t>
         </is>
       </c>
     </row>
@@ -52762,21 +52762,21 @@
         <v>1870</v>
       </c>
       <c r="B1872" s="2" t="n">
-        <v>39112</v>
+        <v>39109</v>
       </c>
       <c r="C1872" t="inlineStr">
         <is>
-          <t>02,03,13,14,26,37</t>
+          <t>06,09,10,12,23,29</t>
         </is>
       </c>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1872" t="inlineStr">
         <is>
-          <t>even-odd-odd-even-even-odd</t>
+          <t>even-odd-even-even-odd-odd</t>
         </is>
       </c>
       <c r="F1872" t="inlineStr">
@@ -52790,26 +52790,26 @@
         <v>1871</v>
       </c>
       <c r="B1873" s="2" t="n">
-        <v>39109</v>
+        <v>39105</v>
       </c>
       <c r="C1873" t="inlineStr">
         <is>
-          <t>06,09,10,12,23,29</t>
+          <t>04,06,21,26,27,28</t>
         </is>
       </c>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1873" t="inlineStr">
         <is>
-          <t>even-odd-even-even-odd-odd</t>
+          <t>even-even-odd-even-odd-even</t>
         </is>
       </c>
       <c r="F1873" t="inlineStr">
         <is>
-          <t>Even: 3, Odd: 3</t>
+          <t>Even: 4, Odd: 2</t>
         </is>
       </c>
     </row>
@@ -52818,26 +52818,26 @@
         <v>1872</v>
       </c>
       <c r="B1874" s="2" t="n">
-        <v>39105</v>
+        <v>39102</v>
       </c>
       <c r="C1874" t="inlineStr">
         <is>
-          <t>04,06,21,26,27,28</t>
+          <t>03,13,20,25,29,37</t>
         </is>
       </c>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1874" t="inlineStr">
         <is>
-          <t>even-even-odd-even-odd-even</t>
+          <t>odd-odd-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1874" t="inlineStr">
         <is>
-          <t>Even: 4, Odd: 2</t>
+          <t>Even: 1, Odd: 5</t>
         </is>
       </c>
     </row>
@@ -52846,21 +52846,21 @@
         <v>1873</v>
       </c>
       <c r="B1875" s="2" t="n">
-        <v>39102</v>
+        <v>39098</v>
       </c>
       <c r="C1875" t="inlineStr">
         <is>
-          <t>03,13,20,25,29,37</t>
+          <t>01,02,03,05,23,37</t>
         </is>
       </c>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1875" t="inlineStr">
         <is>
-          <t>odd-odd-even-odd-odd-odd</t>
+          <t>odd-even-odd-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1875" t="inlineStr">
@@ -52874,26 +52874,26 @@
         <v>1874</v>
       </c>
       <c r="B1876" s="2" t="n">
-        <v>39098</v>
+        <v>39095</v>
       </c>
       <c r="C1876" t="inlineStr">
         <is>
-          <t>01,02,03,05,23,37</t>
+          <t>11,17,19,29,32,40</t>
         </is>
       </c>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1876" t="inlineStr">
         <is>
-          <t>odd-even-odd-odd-odd-odd</t>
+          <t>odd-odd-odd-odd-even-even</t>
         </is>
       </c>
       <c r="F1876" t="inlineStr">
         <is>
-          <t>Even: 1, Odd: 5</t>
+          <t>Even: 2, Odd: 4</t>
         </is>
       </c>
     </row>
@@ -52902,21 +52902,21 @@
         <v>1875</v>
       </c>
       <c r="B1877" s="2" t="n">
-        <v>39095</v>
+        <v>39091</v>
       </c>
       <c r="C1877" t="inlineStr">
         <is>
-          <t>11,17,19,29,32,40</t>
+          <t>11,14,16,29,39,41</t>
         </is>
       </c>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr">
         <is>
-          <t>odd-odd-odd-odd-even-even</t>
+          <t>odd-even-even-odd-odd-odd</t>
         </is>
       </c>
       <c r="F1877" t="inlineStr">
@@ -52930,52 +52930,24 @@
         <v>1876</v>
       </c>
       <c r="B1878" s="2" t="n">
-        <v>39091</v>
+        <v>39088</v>
       </c>
       <c r="C1878" t="inlineStr">
         <is>
-          <t>11,14,16,29,39,41</t>
+          <t>04,15,19,22,30,39</t>
         </is>
       </c>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="E1878" t="inlineStr">
         <is>
-          <t>odd-even-even-odd-odd-odd</t>
+          <t>even-odd-odd-even-even-odd</t>
         </is>
       </c>
       <c r="F1878" t="inlineStr">
-        <is>
-          <t>Even: 2, Odd: 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" s="1" t="n">
-        <v>1877</v>
-      </c>
-      <c r="B1879" s="2" t="n">
-        <v>39088</v>
-      </c>
-      <c r="C1879" t="inlineStr">
-        <is>
-          <t>04,15,19,22,30,39</t>
-        </is>
-      </c>
-      <c r="D1879" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr">
-        <is>
-          <t>even-odd-odd-even-even-odd</t>
-        </is>
-      </c>
-      <c r="F1879" t="inlineStr">
         <is>
           <t>Even: 3, Odd: 3</t>
         </is>
